--- a/python/Stockrow_rtd_test.xlsx
+++ b/python/Stockrow_rtd_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitHub\ExcelRTD\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6E7067-A547-4133-BBDD-E82D35038EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5511080-FD0C-401C-BD91-93F9496E1A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="3060" windowWidth="15480" windowHeight="12675" xr2:uid="{11C27269-5ECA-4DAA-A729-30A5A3855DCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C27269-5ECA-4DAA-A729-30A5A3855DCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>SPY</t>
   </si>
@@ -245,6 +245,9 @@
   <si>
     <t>PYPL</t>
   </si>
+  <si>
+    <t>BEP</t>
+  </si>
 </sst>
 </file>
 
@@ -327,56 +330,56 @@
   <volType type="realTimeData">
     <main first="stockrow">
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>V</stp>
         <stp>last_update_date</stp>
         <tr r="J59" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>T</stp>
         <stp>last_update_date</stp>
         <tr r="J56" s="1"/>
       </tp>
       <tp>
-        <v>30.015000000000001</v>
+        <v>30</v>
         <stp/>
         <stp>T</stp>
         <stp>last_price</stp>
         <tr r="B56" s="1"/>
       </tp>
       <tp>
-        <v>192.63</v>
+        <v>196.49</v>
         <stp/>
         <stp>V</stp>
         <stp>last_price</stp>
         <tr r="B59" s="1"/>
       </tp>
       <tp>
-        <v>55.58</v>
+        <v>55.06</v>
         <stp/>
         <stp>VZ</stp>
         <stp>last_price</stp>
         <tr r="B62" s="1"/>
       </tp>
       <tp>
-        <v>74.165000000000006</v>
+        <v>75.002499999999998</v>
         <stp/>
         <stp>PM</stp>
         <stp>last_price</stp>
         <tr r="B47" s="1"/>
       </tp>
       <tp>
-        <v>238.36</v>
+        <v>240.28</v>
         <stp/>
         <stp>FB</stp>
         <stp>last_price</stp>
         <tr r="B25" s="1"/>
       </tp>
       <tp>
-        <v>142.82749999999999</v>
+        <v>145.75</v>
         <stp/>
         <stp>GD</stp>
         <stp>last_price</stp>
@@ -390,1888 +393,1918 @@
         <tr r="B38" s="1"/>
       </tp>
       <tp>
-        <v>297.42</v>
+        <v>305.72000000000003</v>
         <stp/>
         <stp>MA</stp>
         <stp>last_price</stp>
         <tr r="B34" s="1"/>
       </tp>
       <tp>
-        <v>23.05</v>
+        <v>23.02</v>
         <stp/>
         <stp>IQ</stp>
         <stp>last_price</stp>
         <tr r="B30" s="1"/>
       </tp>
       <tp>
-        <v>62.07</v>
+        <v>62.55</v>
         <stp/>
         <stp>JD</stp>
         <stp>last_price</stp>
         <tr r="B31" s="1"/>
       </tp>
       <tp>
-        <v>135.44</v>
+        <v>133.69</v>
         <stp/>
         <stp>PEP</stp>
         <stp>last_price</stp>
         <tr r="B45" s="1"/>
       </tp>
       <tp>
-        <v>35.21</v>
+        <v>35.71</v>
         <stp/>
         <stp>PFE</stp>
         <stp>last_price</stp>
         <tr r="B46" s="1"/>
       </tp>
       <tp>
-        <v>61.64</v>
+        <v>63.94</v>
         <stp/>
         <stp>PRU</stp>
         <stp>last_price</stp>
         <tr r="B48" s="1"/>
       </tp>
       <tp>
-        <v>259.26</v>
+        <v>260.89999999999998</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last_price</stp>
         <tr r="B50" s="1"/>
       </tp>
       <tp>
-        <v>135.63999999999999</v>
+        <v>141.49</v>
         <stp/>
         <stp>SNA</stp>
         <stp>last_price</stp>
         <tr r="B53" s="1"/>
       </tp>
       <tp>
-        <v>317.92</v>
+        <v>321.98</v>
         <stp/>
         <stp>SPY</stp>
         <stp>last_price</stp>
         <tr r="B55" s="1"/>
       </tp>
       <tp>
-        <v>62</v>
+        <v>66.599999999999994</v>
         <stp/>
         <stp>SPG</stp>
         <stp>last_price</stp>
         <tr r="B54" s="1"/>
       </tp>
       <tp>
-        <v>35.15</v>
+        <v>35.97</v>
         <stp/>
         <stp>VTR</stp>
         <stp>last_price</stp>
         <tr r="B61" s="1"/>
       </tp>
       <tp>
-        <v>83.95</v>
+        <v>86.59</v>
         <stp/>
         <stp>ALB</stp>
         <stp>last_price</stp>
         <tr r="B6" s="1"/>
       </tp>
       <tp>
-        <v>40.409999999999997</v>
+        <v>40.89</v>
         <stp/>
         <stp>ADM</stp>
         <stp>last_price</stp>
         <tr r="B5" s="1"/>
       </tp>
       <tp>
-        <v>153.84</v>
+        <v>154.56</v>
         <stp/>
         <stp>AVB</stp>
         <stp>last_price</stp>
         <tr r="B8" s="1"/>
       </tp>
       <tp>
-        <v>57.77</v>
+        <v>59.27</v>
         <stp/>
         <stp>BMY</stp>
         <stp>last_price</stp>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp>
+        <v>53.436199999999999</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>last_price</stp>
         <tr r="B11" s="1"/>
       </tp>
       <tp>
-        <v>36.85</v>
+        <v>36.31</v>
         <stp/>
         <stp>BTI</stp>
         <stp>last_price</stp>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp>
-        <v>52.975000000000001</v>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp>
+        <v>54.18</v>
         <stp/>
         <stp>BUD</stp>
         <stp>last_price</stp>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp>
-        <v>35.384999999999998</v>
+        <tr r="B14" s="1"/>
+      </tp>
+      <tp>
+        <v>35.03</v>
         <stp/>
         <stp>CHL</stp>
         <stp>last_price</stp>
         <tr r="B17" s="1"/>
       </tp>
       <tp>
-        <v>15.02</v>
+        <v>17.48</v>
         <stp/>
         <stp>CCL</stp>
         <stp>last_price</stp>
-        <tr r="B15" s="1"/>
         <tr r="B16" s="1"/>
       </tp>
       <tp>
-        <v>116.22</v>
+        <v>120.52</v>
         <stp/>
         <stp>CSL</stp>
         <stp>last_price</stp>
         <tr r="B19" s="1"/>
       </tp>
       <tp>
-        <v>118.38</v>
+        <v>120.895</v>
         <stp/>
         <stp>DIS</stp>
         <stp>last_price</stp>
         <tr r="B21" s="1"/>
       </tp>
       <tp>
-        <v>82.055000000000007</v>
+        <v>80.430000000000007</v>
         <stp/>
         <stp>DUK</stp>
         <stp>last_price</stp>
         <tr r="B22" s="1"/>
       </tp>
       <tp>
-        <v>56.99</v>
+        <v>55.27</v>
         <stp/>
         <stp>EIX</stp>
         <stp>last_price</stp>
         <tr r="B23" s="1"/>
       </tp>
       <tp>
-        <v>17.12</v>
+        <v>17.8218</v>
         <stp/>
         <stp>EPD</stp>
         <stp>last_price</stp>
         <tr r="B24" s="1"/>
       </tp>
       <tp>
-        <v>170.04499999999999</v>
+        <v>170.35</v>
         <stp/>
         <stp>GLD</stp>
         <stp>last_price</stp>
         <tr r="B27" s="1"/>
       </tp>
       <tp>
-        <v>147.89500000000001</v>
+        <v>148.315</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>last_price</stp>
         <tr r="B32" s="1"/>
       </tp>
       <tp>
-        <v>66.75</v>
+        <v>68.88</v>
         <stp/>
         <stp>LYB</stp>
         <stp>last_price</stp>
         <tr r="B33" s="1"/>
       </tp>
       <tp>
-        <v>158.74</v>
+        <v>159.35</v>
         <stp/>
         <stp>MMM</stp>
         <stp>last_price</stp>
         <tr r="B37" s="1"/>
       </tp>
       <tp>
-        <v>13.75</v>
+        <v>14.74</v>
         <stp/>
         <stp>MDP</stp>
         <stp>last_price</stp>
         <tr r="B35" s="1"/>
       </tp>
       <tp>
-        <v>94.21</v>
+        <v>97.19</v>
         <stp/>
         <stp>MDT</stp>
         <stp>last_price</stp>
         <tr r="B36" s="1"/>
       </tp>
       <tp>
-        <v>4.3099999999999996</v>
+        <v>4.33</v>
         <stp/>
         <stp>NOK</stp>
         <stp>last_price</stp>
         <tr r="B42" s="1"/>
       </tp>
       <tp>
-        <v>61.548999999999999</v>
+        <v>62.09</v>
         <stp/>
         <stp>NEM</stp>
         <stp>last_price</stp>
         <tr r="B40" s="1"/>
       </tp>
       <tp>
-        <v>40.92</v>
+        <v>41.69</v>
         <stp/>
         <stp>NUE</stp>
         <stp>last_price</stp>
         <tr r="B43" s="1"/>
       </tp>
       <tp>
-        <v>65</v>
+        <v>67.180000000000007</v>
         <stp/>
         <stp>LYB</stp>
         <stp>low</stp>
         <tr r="E33" s="1"/>
       </tp>
       <tp>
-        <v>23.05</v>
+        <v>23.3</v>
         <stp/>
         <stp>IQ</stp>
         <stp>high</stp>
         <tr r="D30" s="1"/>
       </tp>
       <tp>
-        <v>82.47</v>
+        <v>82.63</v>
         <stp/>
         <stp>DUK</stp>
         <stp>high</stp>
         <tr r="D22" s="1"/>
       </tp>
       <tp>
-        <v>73.12</v>
+        <v>74.78</v>
         <stp/>
         <stp>PM</stp>
         <stp>open</stp>
         <tr r="C47" s="1"/>
       </tp>
       <tp>
-        <v>168.97</v>
+        <v>169.62</v>
         <stp/>
         <stp>GLD</stp>
         <stp>open</stp>
         <tr r="C27" s="1"/>
       </tp>
       <tp>
-        <v>41.048000000000002</v>
+        <v>42.027999999999999</v>
         <stp/>
         <stp>NUE</stp>
         <stp>high</stp>
         <tr r="D43" s="1"/>
       </tp>
       <tp>
-        <v>52.98</v>
+        <v>54.98</v>
         <stp/>
         <stp>BUD</stp>
         <stp>high</stp>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp>
-        <v>81.56</v>
+        <tr r="D14" s="1"/>
+      </tp>
+      <tp>
+        <v>85.88</v>
         <stp/>
         <stp>ALB</stp>
         <stp>open</stp>
         <tr r="C6" s="1"/>
       </tp>
       <tp>
-        <v>693885</v>
+        <v>835404</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>volume</stp>
         <tr r="G51" s="1"/>
       </tp>
       <tp>
-        <v>3345813</v>
+        <v>2314801</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>volume</stp>
         <tr r="G52" s="1"/>
       </tp>
       <tp>
-        <v>57.83</v>
+        <v>58.65</v>
         <stp/>
         <stp>BMY</stp>
         <stp>open</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>171.05</v>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>172.06</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>close</stp>
         <tr r="F49" s="1"/>
       </tp>
       <tp>
-        <v>387.46010000000001</v>
+        <v>396.98</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>high</stp>
         <tr r="D2" s="1"/>
       </tp>
       <tp>
-        <v>172.33</v>
+        <v>173.34</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>high</stp>
         <tr r="D49" s="1"/>
       </tp>
       <tp>
-        <v>35.9</v>
+        <v>36.49</v>
         <stp/>
         <stp>VTR</stp>
         <stp>high</stp>
         <tr r="D61" s="1"/>
       </tp>
       <tp>
-        <v>154.80000000000001</v>
+        <v>159.97999999999999</v>
         <stp/>
         <stp>MMM</stp>
         <stp>open</stp>
         <tr r="C37" s="1"/>
       </tp>
       <tp>
-        <v>36.85</v>
+        <v>37.090000000000003</v>
         <stp/>
         <stp>BTI</stp>
         <stp>high</stp>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp>
-        <v>91.98</v>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp>
+        <v>95.61</v>
         <stp/>
         <stp>MDT</stp>
         <stp>low</stp>
         <tr r="E36" s="1"/>
       </tp>
       <tp>
-        <v>13.59</v>
+        <v>14.11</v>
         <stp/>
         <stp>MDP</stp>
         <stp>low</stp>
         <tr r="E35" s="1"/>
       </tp>
       <tp>
-        <v>386.47989999999999</v>
+        <v>390.9</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>close</stp>
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>153.9205</v>
+        <v>159.25</v>
         <stp/>
         <stp>MMM</stp>
         <stp>low</stp>
         <tr r="E37" s="1"/>
       </tp>
       <tp>
-        <v>42.3</v>
+        <v>42.79</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>close</stp>
         <tr r="F51" s="1"/>
       </tp>
       <tp>
-        <v>39.479999999999997</v>
+        <v>40.76</v>
         <stp/>
         <stp>NUE</stp>
         <stp>low</stp>
         <tr r="E43" s="1"/>
       </tp>
       <tp>
-        <v>56.29</v>
+        <v>60.39</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>high</stp>
         <tr r="D20" s="1"/>
       </tp>
       <tp>
-        <v>46.29</v>
+        <v>46.4</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>close</stp>
         <tr r="F18" s="1"/>
       </tp>
       <tp>
-        <v>59.06</v>
+        <v>60.41</v>
         <stp/>
         <stp>NEM</stp>
         <stp>low</stp>
         <tr r="E40" s="1"/>
       </tp>
       <tp>
-        <v>314.58</v>
+        <v>313.77999999999997</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>close</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>145.32</v>
+        <v>149.72999999999999</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>open</stp>
         <tr r="C32" s="1"/>
       </tp>
       <tp>
-        <v>4.24</v>
+        <v>4.28</v>
         <stp/>
         <stp>NOK</stp>
         <stp>low</stp>
         <tr r="E42" s="1"/>
       </tp>
       <tp>
-        <v>132.99</v>
+        <v>139.52000000000001</v>
         <stp/>
         <stp>SNA</stp>
         <stp>open</stp>
         <tr r="C53" s="1"/>
       </tp>
       <tp>
-        <v>23.05</v>
+        <v>23.02</v>
         <stp/>
         <stp>IQ</stp>
         <stp>close</stp>
         <tr r="F30" s="1"/>
       </tp>
       <tp>
-        <v>61.64</v>
+        <v>63.94</v>
         <stp/>
         <stp>PRU</stp>
         <stp>close</stp>
         <tr r="F48" s="1"/>
       </tp>
       <tp>
-        <v>202.03</v>
+        <v>205.03</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>low</stp>
         <tr r="E39" s="1"/>
       </tp>
       <tp>
-        <v>45.410299999999999</v>
+        <v>45.984999999999999</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>low</stp>
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>41.09</v>
+        <v>40.659999999999997</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>close</stp>
-        <tr r="F14" s="1"/>
-      </tp>
-      <tp>
-        <v>4.24</v>
+        <tr r="F15" s="1"/>
+      </tp>
+      <tp>
+        <v>4.3899999999999997</v>
         <stp/>
         <stp>NOK</stp>
         <stp>open</stp>
         <tr r="C42" s="1"/>
       </tp>
       <tp>
-        <v>3050.98</v>
+        <v>3008.8701000000001</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>close</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>1431</v>
+        <v>1457</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>low</stp>
         <tr r="E57" s="1"/>
       </tp>
       <tp>
-        <v>155.38999999999999</v>
+        <v>156.16</v>
         <stp/>
         <stp>AVB</stp>
         <stp>high</stp>
         <tr r="D8" s="1"/>
       </tp>
       <tp>
-        <v>62.45</v>
+        <v>63.07</v>
         <stp/>
         <stp>JD</stp>
         <stp>high</stp>
         <tr r="D31" s="1"/>
       </tp>
       <tp>
-        <v>8296207</v>
+        <v>6295377</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>volume</stp>
         <tr r="G49" s="1"/>
       </tp>
       <tp>
-        <v>94.21</v>
+        <v>97.19</v>
         <stp/>
         <stp>MDT</stp>
         <stp>close</stp>
         <tr r="F36" s="1"/>
       </tp>
       <tp>
-        <v>3.61</v>
+        <v>3.16</v>
         <stp/>
         <stp>V</stp>
         <stp>absolute_change</stp>
         <tr r="H59" s="1"/>
       </tp>
       <tp>
-        <v>0.245</v>
+        <v>0.04</v>
         <stp/>
         <stp>T</stp>
         <stp>absolute_change</stp>
         <tr r="H56" s="1"/>
       </tp>
       <tp>
-        <v>55.18</v>
+        <v>58.05</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>low</stp>
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>1556</v>
+        <v>1543</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>open</stp>
         <tr r="C57" s="1"/>
       </tp>
       <tp>
-        <v>42.49</v>
+        <v>41.5</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>high</stp>
-        <tr r="D14" s="1"/>
-      </tp>
-      <tp>
-        <v>259.49</v>
+        <tr r="D15" s="1"/>
+      </tp>
+      <tp>
+        <v>262.69</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>high</stp>
         <tr r="D50" s="1"/>
       </tp>
       <tp>
-        <v>35.119999999999997</v>
+        <v>35.33</v>
         <stp/>
         <stp>CHL</stp>
         <stp>open</stp>
         <tr r="C17" s="1"/>
       </tp>
       <tp>
-        <v>41.04</v>
+        <v>41.744999999999997</v>
         <stp/>
         <stp>MO</stp>
         <stp>high</stp>
         <tr r="D38" s="1"/>
       </tp>
       <tp>
-        <v>297.52</v>
+        <v>306.77499999999998</v>
         <stp/>
         <stp>MA</stp>
         <stp>high</stp>
         <tr r="D34" s="1"/>
       </tp>
       <tp>
-        <v>517.08000000000004</v>
+        <v>516.29999999999995</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>open</stp>
         <tr r="C41" s="1"/>
       </tp>
       <tp>
-        <v>118.38</v>
+        <v>120.895</v>
         <stp/>
         <stp>DIS</stp>
         <stp>close</stp>
         <tr r="F21" s="1"/>
       </tp>
       <tp>
-        <v>56</v>
+        <v>57.33</v>
         <stp/>
         <stp>EIX</stp>
         <stp>open</stp>
         <tr r="C23" s="1"/>
       </tp>
       <tp>
-        <v>58.8202</v>
+        <v>59.34</v>
         <stp/>
         <stp>INTC</stp>
         <stp>high</stp>
         <tr r="D29" s="1"/>
       </tp>
       <tp>
-        <v>317.95</v>
+        <v>323.04000000000002</v>
         <stp/>
         <stp>SPY</stp>
         <stp>high</stp>
         <tr r="D55" s="1"/>
       </tp>
       <tp>
-        <v>119.94</v>
+        <v>121.63</v>
         <stp/>
         <stp>DIS</stp>
         <stp>open</stp>
         <tr r="C21" s="1"/>
       </tp>
       <tp>
-        <v>56.23</v>
+        <v>59.67</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>close</stp>
         <tr r="F20" s="1"/>
       </tp>
       <tp>
-        <v>34.659999999999997</v>
+        <v>35.799999999999997</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>high</stp>
         <tr r="D58" s="1"/>
       </tp>
       <tp>
-        <v>63.94</v>
+        <v>66.709999999999994</v>
         <stp/>
         <stp>SPG</stp>
         <stp>high</stp>
         <tr r="D54" s="1"/>
       </tp>
       <tp>
-        <v>17.36</v>
+        <v>17.96</v>
         <stp/>
         <stp>EPD</stp>
         <stp>high</stp>
         <tr r="D24" s="1"/>
       </tp>
       <tp>
-        <v>6864020</v>
+        <v>10692376</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>volume</stp>
         <tr r="G60" s="1"/>
       </tp>
       <tp>
-        <v>35.15</v>
+        <v>35.97</v>
         <stp/>
         <stp>VTR</stp>
         <stp>close</stp>
         <tr r="F61" s="1"/>
       </tp>
       <tp>
-        <v>54.43</v>
+        <v>55.61</v>
         <stp/>
         <stp>VZ</stp>
         <stp>open</stp>
         <tr r="C62" s="1"/>
       </tp>
       <tp>
-        <v>305.20999999999998</v>
+        <v>310.19</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>low</stp>
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>391.42</v>
+        <v>402.23</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>low</stp>
         <tr r="E44" s="1"/>
       </tp>
       <tp>
-        <v>116.27</v>
+        <v>120.94</v>
         <stp/>
         <stp>CSL</stp>
         <stp>high</stp>
         <tr r="D19" s="1"/>
       </tp>
       <tp>
-        <v>145.26</v>
+        <v>148.22999999999999</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>low</stp>
         <tr r="E32" s="1"/>
       </tp>
       <tp>
-        <v>259.26</v>
+        <v>260.89999999999998</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>close</stp>
         <tr r="F50" s="1"/>
       </tp>
       <tp>
-        <v>1490.3100999999999</v>
+        <v>1523.13</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>open</stp>
         <tr r="C28" s="1"/>
       </tp>
       <tp>
-        <v>33.44</v>
+        <v>34.620699999999999</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>low</stp>
         <tr r="E58" s="1"/>
       </tp>
       <tp>
-        <v>61.88</v>
+        <v>64.239999999999995</v>
         <stp/>
         <stp>PRU</stp>
         <stp>high</stp>
         <tr r="D48" s="1"/>
       </tp>
       <tp>
-        <v>970</v>
+        <v>974</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>open</stp>
         <tr r="C52" s="1"/>
       </tp>
       <tp>
-        <v>13126721</v>
+        <v>13360633</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>volume</stp>
         <tr r="G58" s="1"/>
       </tp>
       <tp>
-        <v>21589110</v>
+        <v>15922023</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>volume</stp>
         <tr r="G57" s="1"/>
       </tp>
       <tp>
-        <v>13.75</v>
+        <v>53.436199999999999</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>close</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.74</v>
         <stp/>
         <stp>MDP</stp>
         <stp>close</stp>
         <tr r="F35" s="1"/>
       </tp>
       <tp>
-        <v>135.44</v>
+        <v>133.69</v>
         <stp/>
         <stp>PEP</stp>
         <stp>close</stp>
         <tr r="F45" s="1"/>
       </tp>
       <tp>
-        <v>81.39</v>
+        <v>80.33</v>
         <stp/>
         <stp>DUK</stp>
         <stp>low</stp>
         <tr r="E22" s="1"/>
       </tp>
       <tp>
-        <v>92.74</v>
+        <v>95.61</v>
         <stp/>
         <stp>MDT</stp>
         <stp>open</stp>
         <tr r="C36" s="1"/>
       </tp>
       <tp>
-        <v>13.81</v>
+        <v>14.21</v>
         <stp/>
         <stp>MDP</stp>
         <stp>open</stp>
         <tr r="C35" s="1"/>
       </tp>
       <tp>
-        <v>39.79</v>
+        <v>41</v>
         <stp/>
         <stp>ADM</stp>
         <stp>open</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
-        <v>114.54</v>
+        <v>119.7</v>
         <stp/>
         <stp>DIS</stp>
         <stp>low</stp>
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>16.952000000000002</v>
+        <v>17.2498</v>
         <stp/>
         <stp>EPD</stp>
         <stp>low</stp>
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>23.51</v>
+        <v>24.72</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>open</stp>
         <tr r="C60" s="1"/>
       </tp>
       <tp>
-        <v>164.33</v>
+        <v>169.02500000000001</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>low</stp>
         <tr r="E49" s="1"/>
       </tp>
       <tp>
-        <v>134.59</v>
+        <v>51.95</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>open</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>135.35</v>
         <stp/>
         <stp>PEP</stp>
         <stp>open</stp>
         <tr r="C45" s="1"/>
       </tp>
       <tp>
-        <v>59.37</v>
+        <v>61.65</v>
         <stp/>
         <stp>NEM</stp>
         <stp>open</stp>
         <tr r="C40" s="1"/>
       </tp>
       <tp>
-        <v>56.14</v>
+        <v>55.06</v>
         <stp/>
         <stp>EIX</stp>
         <stp>low</stp>
         <tr r="E23" s="1"/>
       </tp>
       <tp>
-        <v>55.58</v>
+        <v>55.06</v>
         <stp/>
         <stp>VZ</stp>
         <stp>close</stp>
         <tr r="F62" s="1"/>
       </tp>
       <tp>
-        <v>40.01</v>
+        <v>39.729999999999997</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>low</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp>
-        <v>246.57</v>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>251.48</v>
         <stp/>
         <stp>BABA</stp>
         <stp>open</stp>
         <tr r="C10" s="1"/>
       </tp>
       <tp>
-        <v>96.97</v>
+        <v>100</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>open</stp>
         <tr r="C3" s="1"/>
       </tp>
       <tp>
-        <v>1507.4</v>
+        <v>1513.64</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>close</stp>
         <tr r="F28" s="1"/>
       </tp>
       <tp>
-        <v>35.369999999999997</v>
+        <v>35.99</v>
         <stp/>
         <stp>PFE</stp>
         <stp>open</stp>
         <tr r="C46" s="1"/>
       </tp>
       <tp>
-        <v>45.49</v>
+        <v>46.5</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>open</stp>
         <tr r="C18" s="1"/>
       </tp>
       <tp>
-        <v>40.92</v>
+        <v>43</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>open</stp>
         <tr r="C51" s="1"/>
       </tp>
       <tp>
-        <v>3125.5</v>
+        <v>3097</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>high</stp>
         <tr r="D7" s="1"/>
       </tp>
       <tp>
-        <v>168.8141</v>
+        <v>169.39</v>
         <stp/>
         <stp>GLD</stp>
         <stp>low</stp>
         <tr r="E27" s="1"/>
       </tp>
       <tp>
-        <v>1527</v>
+        <v>1546.01</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>close</stp>
         <tr r="F57" s="1"/>
       </tp>
       <tp>
-        <v>403</v>
+        <v>416.57</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>open</stp>
         <tr r="C44" s="1"/>
       </tp>
       <tp>
-        <v>248.01</v>
+        <v>249.19</v>
         <stp/>
         <stp>BABA</stp>
         <stp>close</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>414</v>
+        <v>409.09</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>close</stp>
         <tr r="F44" s="1"/>
       </tp>
       <tp>
-        <v>67.02</v>
+        <v>69.375</v>
         <stp/>
         <stp>LYB</stp>
         <stp>high</stp>
         <tr r="D33" s="1"/>
       </tp>
       <tp>
-        <v>151.38</v>
+        <v>152.52500000000001</v>
         <stp/>
         <stp>AVB</stp>
         <stp>low</stp>
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>2.58</v>
+        <v>2.67</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>open</stp>
         <tr r="C4" s="1"/>
       </tp>
       <tp>
-        <v>39.44</v>
+        <v>40.61</v>
         <stp/>
         <stp>ADM</stp>
         <stp>low</stp>
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>80.92</v>
+        <v>85.16</v>
         <stp/>
         <stp>ALB</stp>
         <stp>low</stp>
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>24.1</v>
+        <v>24.95</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>close</stp>
         <tr r="F60" s="1"/>
       </tp>
       <tp>
-        <v>51.96</v>
+        <v>53.81</v>
         <stp/>
         <stp>BUD</stp>
         <stp>low</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>36.409999999999997</v>
+        <tr r="E14" s="1"/>
+      </tp>
+      <tp>
+        <v>36.204999999999998</v>
         <stp/>
         <stp>BTI</stp>
         <stp>low</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>206.13</v>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>209.56</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>open</stp>
         <tr r="C39" s="1"/>
       </tp>
       <tp>
-        <v>57.284999999999997</v>
+        <v>52</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>low</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>58.32</v>
         <stp/>
         <stp>BMY</stp>
         <stp>low</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>58.8</v>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>59.03</v>
         <stp/>
         <stp>INTC</stp>
         <stp>close</stp>
         <tr r="F29" s="1"/>
       </tp>
       <tp>
-        <v>143.93</v>
+        <v>146.83000000000001</v>
         <stp/>
         <stp>GD</stp>
         <stp>high</stp>
         <tr r="D26" s="1"/>
       </tp>
       <tp>
-        <v>57.77</v>
+        <v>59.27</v>
         <stp/>
         <stp>BMY</stp>
         <stp>close</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>317.92</v>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>321.98</v>
         <stp/>
         <stp>SPY</stp>
         <stp>close</stp>
         <tr r="F55" s="1"/>
       </tp>
       <tp>
-        <v>1.9099999999999999E-2</v>
+        <v>1.6299999999999999E-2</v>
         <stp/>
         <stp>V</stp>
         <stp>relative_change</stp>
         <tr r="I59" s="1"/>
       </tp>
       <tp>
-        <v>8.2000000000000007E-3</v>
+        <v>1.2999999999999999E-3</v>
         <stp/>
         <stp>T</stp>
         <stp>relative_change</stp>
         <tr r="I56" s="1"/>
       </tp>
       <tp>
-        <v>113.83</v>
+        <v>118.48</v>
         <stp/>
         <stp>CSL</stp>
         <stp>low</stp>
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>308.99</v>
+        <v>315.95</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>open</stp>
         <tr r="C9" s="1"/>
       </tp>
       <tp>
-        <v>14.595000000000001</v>
+        <v>15.93</v>
         <stp/>
         <stp>CCL</stp>
         <stp>low</stp>
-        <tr r="E15" s="1"/>
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>14.97</v>
+        <v>16.13</v>
         <stp/>
         <stp>CCL</stp>
         <stp>open</stp>
-        <tr r="C15" s="1"/>
         <tr r="C16" s="1"/>
       </tp>
       <tp>
-        <v>239.8374</v>
+        <v>244.82</v>
         <stp/>
         <stp>FB</stp>
         <stp>high</stp>
         <tr r="D25" s="1"/>
       </tp>
       <tp>
-        <v>35.049999999999997</v>
+        <v>35</v>
         <stp/>
         <stp>CHL</stp>
         <stp>low</stp>
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>56.99</v>
+        <v>55.27</v>
         <stp/>
         <stp>EIX</stp>
         <stp>close</stp>
         <tr r="F23" s="1"/>
       </tp>
       <tp>
-        <v>24.22</v>
+        <v>25.34</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>high</stp>
         <tr r="D60" s="1"/>
       </tp>
       <tp>
-        <v>136.95150000000001</v>
+        <v>53.44</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>high</stp>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp>
+        <v>136.19</v>
         <stp/>
         <stp>PEP</stp>
         <stp>high</stp>
         <tr r="D45" s="1"/>
       </tp>
       <tp>
-        <v>61.577800000000003</v>
+        <v>62.18</v>
         <stp/>
         <stp>NEM</stp>
         <stp>high</stp>
         <tr r="D40" s="1"/>
       </tp>
       <tp>
-        <v>1832886</v>
+        <v>4505225</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>volume</stp>
         <tr r="G20" s="1"/>
       </tp>
       <tp>
-        <v>13267803</v>
+        <v>14741813</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>volume</stp>
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>62</v>
+        <v>66.599999999999994</v>
         <stp/>
         <stp>SPG</stp>
         <stp>close</stp>
         <tr r="F54" s="1"/>
       </tp>
       <tp>
-        <v>375.52</v>
+        <v>385.9701</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>low</stp>
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>94.33</v>
+        <v>98.22</v>
         <stp/>
         <stp>MDT</stp>
         <stp>high</stp>
         <tr r="D36" s="1"/>
       </tp>
       <tp>
-        <v>14.47</v>
+        <v>14.98</v>
         <stp/>
         <stp>MDP</stp>
         <stp>high</stp>
         <tr r="D35" s="1"/>
       </tp>
       <tp>
-        <v>40.57</v>
+        <v>41.2</v>
         <stp/>
         <stp>ADM</stp>
         <stp>high</stp>
         <tr r="D5" s="1"/>
       </tp>
       <tp>
-        <v>241.23</v>
+        <v>246.54</v>
         <stp/>
         <stp>BABA</stp>
         <stp>low</stp>
         <tr r="E10" s="1"/>
       </tp>
       <tp>
-        <v>16581723</v>
+        <v>10917114</v>
         <stp/>
         <stp>BABA</stp>
         <stp>volume</stp>
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>1567320</v>
+        <v>1485065</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>volume</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-      <tp>
-        <v>238.36</v>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp>
+        <v>240.28</v>
         <stp/>
         <stp>FB</stp>
         <stp>close</stp>
         <tr r="F25" s="1"/>
       </tp>
       <tp>
-        <v>3089</v>
+        <v>3080.23</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>open</stp>
         <tr r="C7" s="1"/>
       </tp>
       <tp>
-        <v>46.399900000000002</v>
+        <v>46.83</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>high</stp>
         <tr r="D18" s="1"/>
       </tp>
       <tp>
-        <v>42.36</v>
+        <v>43.15</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>high</stp>
         <tr r="D51" s="1"/>
       </tp>
       <tp>
-        <v>2.52</v>
+        <v>2.66</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>low</stp>
         <tr r="E4" s="1"/>
       </tp>
       <tp>
-        <v>95.94</v>
+        <v>98.82</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>low</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>4572088</v>
+        <v>4556852</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>volume</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>45831964</v>
+        <v>30470914</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>volume</stp>
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>35556217</v>
+        <v>37558728</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>volume</stp>
         <tr r="G2" s="1"/>
       </tp>
       <tp>
-        <v>6429508</v>
+        <v>5693652</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>volume</stp>
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>1134403</v>
+        <v>1410637</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>volume</stp>
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>297.42</v>
+        <v>305.72000000000003</v>
         <stp/>
         <stp>MA</stp>
         <stp>close</stp>
         <tr r="F34" s="1"/>
       </tp>
       <tp>
-        <v>40.92</v>
+        <v>41.69</v>
         <stp/>
         <stp>NUE</stp>
         <stp>close</stp>
         <tr r="F43" s="1"/>
       </tp>
       <tp>
-        <v>35.21</v>
+        <v>35.71</v>
         <stp/>
         <stp>PFE</stp>
         <stp>close</stp>
         <tr r="F46" s="1"/>
       </tp>
       <tp>
-        <v>249.72</v>
+        <v>252.49</v>
         <stp/>
         <stp>BABA</stp>
         <stp>high</stp>
         <tr r="D10" s="1"/>
       </tp>
       <tp>
-        <v>98.678700000000006</v>
+        <v>100.48</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>high</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>40.72</v>
+        <v>42.19</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>low</stp>
         <tr r="E51" s="1"/>
       </tp>
       <tp>
-        <v>35.42</v>
+        <v>36.04</v>
         <stp/>
         <stp>PFE</stp>
         <stp>high</stp>
         <tr r="D46" s="1"/>
       </tp>
       <tp>
-        <v>8.3000000000000001E-3</v>
+        <v>-9.9000000000000008E-3</v>
         <stp/>
         <stp>IQ</stp>
         <stp>relative_change</stp>
         <tr r="I30" s="1"/>
       </tp>
       <tp>
-        <v>-3.7000000000000002E-3</v>
+        <v>6.7999999999999996E-3</v>
         <stp/>
         <stp>JD</stp>
         <stp>relative_change</stp>
         <tr r="I31" s="1"/>
       </tp>
       <tp>
-        <v>1.9699999999999999E-2</v>
+        <v>-1.6999999999999999E-3</v>
         <stp/>
         <stp>MO</stp>
         <stp>relative_change</stp>
         <tr r="I38" s="1"/>
       </tp>
       <tp>
-        <v>2.5000000000000001E-2</v>
+        <v>2.2599999999999999E-2</v>
         <stp/>
         <stp>MA</stp>
         <stp>relative_change</stp>
         <tr r="I34" s="1"/>
       </tp>
       <tp>
-        <v>-2.7000000000000001E-3</v>
+        <v>2.3E-3</v>
         <stp/>
         <stp>FB</stp>
         <stp>relative_change</stp>
         <tr r="I25" s="1"/>
       </tp>
       <tp>
-        <v>1E-4</v>
+        <v>1.67E-2</v>
         <stp/>
         <stp>GD</stp>
         <stp>relative_change</stp>
         <tr r="I26" s="1"/>
       </tp>
       <tp>
-        <v>8.9999999999999993E-3</v>
+        <v>9.2999999999999992E-3</v>
         <stp/>
         <stp>PM</stp>
         <stp>relative_change</stp>
         <tr r="I47" s="1"/>
       </tp>
       <tp>
-        <v>2.0799999999999999E-2</v>
+        <v>-6.8999999999999999E-3</v>
         <stp/>
         <stp>VZ</stp>
         <stp>relative_change</stp>
         <tr r="I62" s="1"/>
       </tp>
       <tp>
-        <v>170.04499999999999</v>
+        <v>170.35</v>
         <stp/>
         <stp>GLD</stp>
         <stp>close</stp>
         <tr r="F27" s="1"/>
       </tp>
       <tp>
-        <v>17.12</v>
+        <v>17.8218</v>
         <stp/>
         <stp>EPD</stp>
         <stp>close</stp>
         <tr r="F24" s="1"/>
       </tp>
       <tp>
-        <v>52.975000000000001</v>
+        <v>54.18</v>
         <stp/>
         <stp>BUD</stp>
         <stp>close</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>2.62</v>
+        <tr r="F14" s="1"/>
+      </tp>
+      <tp>
+        <v>2.7185000000000001</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>high</stp>
         <tr r="D4" s="1"/>
       </tp>
       <tp>
-        <v>1153616</v>
+        <v>1708174</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>volume</stp>
         <tr r="G28" s="1"/>
       </tp>
       <tp>
-        <v>414.13</v>
+        <v>417.32</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>high</stp>
         <tr r="D44" s="1"/>
       </tp>
       <tp>
-        <v>518.64</v>
+        <v>523.26</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>close</stp>
         <tr r="F41" s="1"/>
       </tp>
       <tp>
-        <v>65.34</v>
+        <v>69.05</v>
         <stp/>
         <stp>LYB</stp>
         <stp>open</stp>
         <tr r="C33" s="1"/>
       </tp>
       <tp>
-        <v>153.84</v>
+        <v>154.56</v>
         <stp/>
         <stp>AVB</stp>
         <stp>close</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>83.95</v>
+        <v>86.59</v>
         <stp/>
         <stp>ALB</stp>
         <stp>close</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>66.75</v>
+        <v>68.88</v>
         <stp/>
         <stp>LYB</stp>
         <stp>close</stp>
         <tr r="F33" s="1"/>
       </tp>
       <tp>
-        <v>314.74</v>
+        <v>317.61</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>high</stp>
         <tr r="D9" s="1"/>
       </tp>
       <tp>
-        <v>15.18</v>
+        <v>17.559999999999999</v>
         <stp/>
         <stp>CCL</stp>
         <stp>high</stp>
-        <tr r="D15" s="1"/>
         <tr r="D16" s="1"/>
       </tp>
       <tp>
-        <v>491</v>
+        <v>510.18</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>low</stp>
         <tr r="E41" s="1"/>
       </tp>
       <tp>
-        <v>236.76</v>
+        <v>241.55</v>
         <stp/>
         <stp>FB</stp>
         <stp>open</stp>
         <tr r="C25" s="1"/>
       </tp>
       <tp>
-        <v>135.63999999999999</v>
+        <v>141.49</v>
         <stp/>
         <stp>SNA</stp>
         <stp>close</stp>
         <tr r="F53" s="1"/>
       </tp>
       <tp>
-        <v>208.29990000000001</v>
+        <v>211.33</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>high</stp>
         <tr r="D39" s="1"/>
       </tp>
       <tp>
-        <v>142.25</v>
+        <v>146.85</v>
         <stp/>
         <stp>GD</stp>
         <stp>open</stp>
         <tr r="C26" s="1"/>
       </tp>
       <tp>
-        <v>62.07</v>
+        <v>62.55</v>
         <stp/>
         <stp>JD</stp>
         <stp>close</stp>
         <tr r="F31" s="1"/>
       </tp>
       <tp>
-        <v>142.82749999999999</v>
+        <v>145.75</v>
         <stp/>
         <stp>GD</stp>
         <stp>close</stp>
         <tr r="F26" s="1"/>
       </tp>
       <tp>
-        <v>58.058900000000001</v>
+        <v>59.61</v>
         <stp/>
         <stp>BMY</stp>
         <stp>high</stp>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp>
-        <v>379.36</v>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>395.96</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>open</stp>
         <tr r="C2" s="1"/>
       </tp>
       <tp>
-        <v>168.75</v>
+        <v>172.99</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>open</stp>
         <tr r="C49" s="1"/>
       </tp>
       <tp>
-        <v>34.97</v>
+        <v>36.36</v>
         <stp/>
         <stp>VTR</stp>
         <stp>open</stp>
         <tr r="C61" s="1"/>
       </tp>
       <tp>
-        <v>158.80000000000001</v>
+        <v>161.375</v>
         <stp/>
         <stp>MMM</stp>
         <stp>high</stp>
         <tr r="D37" s="1"/>
       </tp>
       <tp>
-        <v>36.5</v>
+        <v>37.020000000000003</v>
         <stp/>
         <stp>BTI</stp>
         <stp>open</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>901.77</v>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp>
+        <v>934</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>low</stp>
         <tr r="E52" s="1"/>
       </tp>
       <tp>
-        <v>0.66500000000000004</v>
+        <v>0.6925</v>
         <stp/>
         <stp>PM</stp>
         <stp>absolute_change</stp>
         <tr r="H47" s="1"/>
       </tp>
       <tp>
-        <v>1.1299999999999999</v>
+        <v>-0.38</v>
         <stp/>
         <stp>VZ</stp>
         <stp>absolute_change</stp>
         <tr r="H62" s="1"/>
       </tp>
       <tp>
-        <v>7.4999999999999997E-3</v>
+        <v>2.39</v>
         <stp/>
         <stp>GD</stp>
         <stp>absolute_change</stp>
         <tr r="H26" s="1"/>
       </tp>
       <tp>
-        <v>-0.64</v>
+        <v>0.55000000000000004</v>
         <stp/>
         <stp>FB</stp>
         <stp>absolute_change</stp>
         <tr r="H25" s="1"/>
       </tp>
       <tp>
-        <v>-0.23</v>
+        <v>0.42</v>
         <stp/>
         <stp>JD</stp>
         <stp>absolute_change</stp>
         <tr r="H31" s="1"/>
       </tp>
       <tp>
-        <v>0.19</v>
+        <v>-0.23</v>
         <stp/>
         <stp>IQ</stp>
         <stp>absolute_change</stp>
         <tr r="H30" s="1"/>
       </tp>
       <tp>
-        <v>7.24</v>
+        <v>6.77</v>
         <stp/>
         <stp>MA</stp>
         <stp>absolute_change</stp>
         <tr r="H34" s="1"/>
       </tp>
       <tp>
-        <v>0.79</v>
+        <v>-7.0000000000000007E-2</v>
         <stp/>
         <stp>MO</stp>
         <stp>absolute_change</stp>
         <tr r="H38" s="1"/>
       </tp>
       <tp>
-        <v>22.89</v>
+        <v>23.16</v>
         <stp/>
         <stp>IQ</stp>
         <stp>open</stp>
         <tr r="C30" s="1"/>
       </tp>
       <tp>
-        <v>23.161999999999999</v>
+        <v>24.33</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>low</stp>
         <tr r="E60" s="1"/>
       </tp>
       <tp>
-        <v>81.42</v>
+        <v>82.48</v>
         <stp/>
         <stp>DUK</stp>
         <stp>open</stp>
         <tr r="C22" s="1"/>
       </tp>
       <tp>
-        <v>74.19</v>
+        <v>75.349999999999994</v>
         <stp/>
         <stp>PM</stp>
         <stp>high</stp>
         <tr r="D47" s="1"/>
       </tp>
       <tp>
-        <v>39.76</v>
+        <v>41.84</v>
         <stp/>
         <stp>NUE</stp>
         <stp>open</stp>
         <tr r="C43" s="1"/>
       </tp>
       <tp>
-        <v>52.07</v>
+        <v>54.38</v>
         <stp/>
         <stp>BUD</stp>
         <stp>open</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp>
-        <v>207.13</v>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp>
+        <v>208.04</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>close</stp>
         <tr r="F39" s="1"/>
       </tp>
       <tp>
-        <v>170.2</v>
+        <v>170.42</v>
         <stp/>
         <stp>GLD</stp>
         <stp>high</stp>
         <tr r="D27" s="1"/>
       </tp>
       <tp>
-        <v>83.97</v>
+        <v>86.825000000000003</v>
         <stp/>
         <stp>ALB</stp>
         <stp>high</stp>
         <tr r="D6" s="1"/>
       </tp>
       <tp>
-        <v>192.63</v>
+        <v>196.49</v>
         <stp/>
         <stp>V</stp>
         <stp>close</stp>
         <tr r="F59" s="1"/>
       </tp>
       <tp>
-        <v>34.799999999999997</v>
+        <v>34.93</v>
         <stp/>
         <stp>VTR</stp>
         <stp>low</stp>
         <tr r="E61" s="1"/>
       </tp>
       <tp>
-        <v>4.33</v>
+        <v>4.4000000000000004</v>
         <stp/>
         <stp>NOK</stp>
         <stp>high</stp>
         <tr r="D42" s="1"/>
       </tp>
       <tp>
-        <v>60.9</v>
+        <v>62.38</v>
         <stp/>
         <stp>JD</stp>
         <stp>open</stp>
         <tr r="C31" s="1"/>
       </tp>
       <tp>
-        <v>151.86000000000001</v>
+        <v>156.07</v>
         <stp/>
         <stp>AVB</stp>
         <stp>open</stp>
         <tr r="C8" s="1"/>
       </tp>
       <tp>
-        <v>14753798</v>
+        <v>18770490</v>
         <stp/>
         <stp>INTC</stp>
         <stp>volume</stp>
         <tr r="G29" s="1"/>
       </tp>
       <tp>
-        <v>40.409999999999997</v>
+        <v>40.89</v>
         <stp/>
         <stp>ADM</stp>
         <stp>close</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>61.548999999999999</v>
+        <v>62.09</v>
         <stp/>
         <stp>NEM</stp>
         <stp>close</stp>
         <tr r="F40" s="1"/>
       </tp>
       <tp>
-        <v>158.74</v>
+        <v>159.35</v>
         <stp/>
         <stp>MMM</stp>
         <stp>close</stp>
         <tr r="F37" s="1"/>
       </tp>
       <tp>
-        <v>56.02</v>
+        <v>58</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>open</stp>
         <tr r="C20" s="1"/>
       </tp>
       <tp>
-        <v>147.9</v>
+        <v>150.20500000000001</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>high</stp>
         <tr r="D32" s="1"/>
       </tp>
       <tp>
-        <v>2.605</v>
+        <v>2.6949999999999998</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>close</stp>
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>98.668700000000001</v>
+        <v>100.48</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>close</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>135.79499999999999</v>
+        <v>141.9</v>
         <stp/>
         <stp>SNA</stp>
         <stp>high</stp>
         <tr r="D53" s="1"/>
       </tp>
       <tp>
-        <v>30.015000000000001</v>
+        <v>30</v>
         <stp/>
         <stp>T</stp>
         <stp>close</stp>
         <tr r="F56" s="1"/>
       </tp>
       <tp>
-        <v>116.22</v>
+        <v>120.52</v>
         <stp/>
         <stp>CSL</stp>
         <stp>close</stp>
         <tr r="F19" s="1"/>
       </tp>
       <tp>
-        <v>15.02</v>
+        <v>17.48</v>
         <stp/>
         <stp>CCL</stp>
         <stp>close</stp>
-        <tr r="F15" s="1"/>
         <tr r="F16" s="1"/>
       </tp>
       <tp>
-        <v>35.384999999999998</v>
+        <v>35.03</v>
         <stp/>
         <stp>CHL</stp>
         <stp>close</stp>
         <tr r="F17" s="1"/>
       </tp>
       <tp>
-        <v>60.16</v>
+        <v>62.5</v>
         <stp/>
         <stp>PRU</stp>
         <stp>low</stp>
         <tr r="E48" s="1"/>
       </tp>
       <tp>
-        <v>57.8735</v>
+        <v>59.03</v>
         <stp/>
         <stp>INTC</stp>
         <stp>open</stp>
         <tr r="C29" s="1"/>
       </tp>
       <tp>
-        <v>313.3</v>
+        <v>322.41000000000003</v>
         <stp/>
         <stp>SPY</stp>
         <stp>open</stp>
         <tr r="C55" s="1"/>
       </tp>
       <tp>
-        <v>57.32</v>
+        <v>57.59</v>
         <stp/>
         <stp>EIX</stp>
         <stp>high</stp>
         <tr r="D23" s="1"/>
       </tp>
       <tp>
-        <v>119.08</v>
+        <v>122.09</v>
         <stp/>
         <stp>DIS</stp>
         <stp>high</stp>
         <tr r="D21" s="1"/>
       </tp>
       <tp>
-        <v>34.880000000000003</v>
+        <v>35.47</v>
         <stp/>
         <stp>PFE</stp>
         <stp>low</stp>
         <tr r="E46" s="1"/>
       </tp>
       <tp>
-        <v>33.53</v>
+        <v>35.119999999999997</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>open</stp>
         <tr r="C58" s="1"/>
       </tp>
       <tp>
-        <v>134.25</v>
+        <v>133.25</v>
         <stp/>
         <stp>PEP</stp>
         <stp>low</stp>
         <tr r="E45" s="1"/>
       </tp>
       <tp>
-        <v>17.010000000000002</v>
+        <v>17.38</v>
         <stp/>
         <stp>EPD</stp>
         <stp>open</stp>
         <tr r="C24" s="1"/>
       </tp>
       <tp>
-        <v>63.08</v>
+        <v>64.540000000000006</v>
         <stp/>
         <stp>SPG</stp>
         <stp>open</stp>
@@ -2285,883 +2318,889 @@
         <tr r="F38" s="1"/>
       </tp>
       <tp>
-        <v>82.055000000000007</v>
+        <v>80.430000000000007</v>
         <stp/>
         <stp>DUK</stp>
         <stp>close</stp>
         <tr r="F22" s="1"/>
       </tp>
       <tp>
-        <v>4.3099999999999996</v>
+        <v>4.33</v>
         <stp/>
         <stp>NOK</stp>
         <stp>close</stp>
         <tr r="F42" s="1"/>
       </tp>
       <tp>
-        <v>252.76</v>
+        <v>257.5</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>low</stp>
         <tr r="E50" s="1"/>
       </tp>
       <tp>
-        <v>1590</v>
+        <v>1550</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>high</stp>
         <tr r="D57" s="1"/>
       </tp>
       <tp>
-        <v>967.69500000000005</v>
+        <v>959.24</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>close</stp>
         <tr r="F52" s="1"/>
       </tp>
       <tp>
-        <v>42.37</v>
+        <v>41.41</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>open</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp>
-        <v>256.07</v>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp>
+        <v>261.68</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>open</stp>
         <tr r="C50" s="1"/>
       </tp>
       <tp>
-        <v>2950</v>
+        <v>2973.3701000000001</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>low</stp>
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>35.53</v>
+        <v>35.36</v>
         <stp/>
         <stp>CHL</stp>
         <stp>high</stp>
         <tr r="D17" s="1"/>
       </tp>
       <tp>
-        <v>40.21</v>
+        <v>41.34</v>
         <stp/>
         <stp>MO</stp>
         <stp>open</stp>
         <tr r="C38" s="1"/>
       </tp>
       <tp>
-        <v>292</v>
+        <v>303</v>
         <stp/>
         <stp>MA</stp>
         <stp>open</stp>
         <tr r="C34" s="1"/>
       </tp>
       <tp>
-        <v>525</v>
+        <v>528.99</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>high</stp>
         <tr r="D41" s="1"/>
       </tp>
       <tp>
-        <v>13600697</v>
+        <v>9929455</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>volume</stp>
         <tr r="G41" s="1"/>
       </tp>
       <tp>
-        <v>11878040</v>
+        <v>9646619</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>volume</stp>
         <tr r="G44" s="1"/>
       </tp>
       <tp>
-        <v>147.89500000000001</v>
+        <v>148.315</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>close</stp>
         <tr r="F32" s="1"/>
       </tp>
       <tp>
-        <v>1515</v>
+        <v>1535.33</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>high</stp>
         <tr r="D28" s="1"/>
       </tp>
       <tp>
-        <v>57.344999999999999</v>
+        <v>58.42</v>
         <stp/>
         <stp>INTC</stp>
         <stp>low</stp>
         <tr r="E29" s="1"/>
       </tp>
       <tp>
-        <v>60.88</v>
+        <v>63.4</v>
         <stp/>
         <stp>PRU</stp>
         <stp>open</stp>
         <tr r="C48" s="1"/>
       </tp>
       <tp>
-        <v>997.85130000000004</v>
+        <v>977.73199999999997</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>high</stp>
         <tr r="D52" s="1"/>
       </tp>
       <tp>
-        <v>29984033</v>
+        <v>31092028</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>volume</stp>
         <tr r="G39" s="1"/>
       </tp>
       <tp>
-        <v>74.165000000000006</v>
+        <v>75.002499999999998</v>
         <stp/>
         <stp>PM</stp>
         <stp>close</stp>
         <tr r="F47" s="1"/>
       </tp>
       <tp>
-        <v>36.85</v>
+        <v>36.31</v>
         <stp/>
         <stp>BTI</stp>
         <stp>close</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>55.594999999999999</v>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>55.72</v>
         <stp/>
         <stp>VZ</stp>
         <stp>high</stp>
         <tr r="D62" s="1"/>
       </tp>
       <tp>
-        <v>34.14</v>
+        <v>35.68</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>close</stp>
         <tr r="F58" s="1"/>
       </tp>
       <tp>
-        <v>61.37</v>
+        <v>63.83</v>
         <stp/>
         <stp>SPG</stp>
         <stp>low</stp>
         <tr r="E54" s="1"/>
       </tp>
       <tp>
-        <v>312</v>
+        <v>319.26499999999999</v>
         <stp/>
         <stp>SPY</stp>
         <stp>low</stp>
         <tr r="E55" s="1"/>
       </tp>
       <tp>
-        <v>114.56</v>
+        <v>119.52</v>
         <stp/>
         <stp>CSL</stp>
         <stp>open</stp>
         <tr r="C19" s="1"/>
       </tp>
       <tp>
-        <v>1484.0916</v>
+        <v>1498</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>low</stp>
         <tr r="E28" s="1"/>
       </tp>
       <tp>
-        <v>132.20930000000001</v>
+        <v>138.04</v>
         <stp/>
         <stp>SNA</stp>
         <stp>low</stp>
         <tr r="E53" s="1"/>
       </tp>
       <tp>
-        <v>24.1</v>
+        <v>24.95</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>last_price</stp>
         <tr r="B60" s="1"/>
       </tp>
       <tp>
-        <v>34.14</v>
+        <v>35.68</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>last_price</stp>
         <tr r="B58" s="1"/>
       </tp>
       <tp>
-        <v>1527</v>
+        <v>1546.01</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>last_price</stp>
         <tr r="B57" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last_update_date</stp>
         <tr r="J7" s="1"/>
       </tp>
       <tp>
-        <v>967.69500000000005</v>
+        <v>959.24</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>last_price</stp>
         <tr r="B52" s="1"/>
       </tp>
       <tp>
-        <v>42.3</v>
+        <v>42.79</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>last_price</stp>
         <tr r="B51" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>LYB</stp>
         <stp>last_update_date</stp>
         <tr r="J33" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>GD</stp>
         <stp>last_update_date</stp>
         <tr r="J26" s="1"/>
       </tp>
       <tp>
-        <v>171.05</v>
+        <v>172.06</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>last_price</stp>
         <tr r="B49" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>FB</stp>
         <stp>last_update_date</stp>
         <tr r="J25" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>DUK</stp>
         <stp>last_update_date</stp>
         <tr r="J22" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>BUD</stp>
         <stp>last_update_date</stp>
-        <tr r="J13" s="1"/>
+        <tr r="J14" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>NUE</stp>
         <stp>last_update_date</stp>
         <tr r="J43" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>IQ</stp>
         <stp>last_update_date</stp>
         <tr r="J30" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>BTI</stp>
         <stp>last_update_date</stp>
-        <tr r="J12" s="1"/>
+        <tr r="J13" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>VTR</stp>
         <stp>last_update_date</stp>
         <tr r="J61" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>last_update_date</stp>
         <tr r="J49" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>last_update_date</stp>
         <tr r="J2" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>last_update_date</stp>
         <tr r="J20" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>AVB</stp>
         <stp>last_update_date</stp>
         <tr r="J8" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>JD</stp>
         <stp>last_update_date</stp>
         <tr r="J31" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>MO</stp>
         <stp>last_update_date</stp>
         <tr r="J38" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>MA</stp>
         <stp>last_update_date</stp>
         <tr r="J34" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>last_update_date</stp>
         <tr r="J50" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>last_update_date</stp>
-        <tr r="J14" s="1"/>
+        <tr r="J15" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>last_update_date</stp>
         <tr r="J58" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>SPG</stp>
         <stp>last_update_date</stp>
         <tr r="J54" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>EPD</stp>
         <stp>last_update_date</stp>
         <tr r="J24" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>SPY</stp>
         <stp>last_update_date</stp>
         <tr r="J55" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>INTC</stp>
         <stp>last_update_date</stp>
         <tr r="J29" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>CSL</stp>
         <stp>last_update_date</stp>
         <tr r="J19" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>PRU</stp>
         <stp>last_update_date</stp>
         <tr r="J48" s="1"/>
       </tp>
       <tp>
-        <v>1507.4</v>
+        <v>1513.64</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>last_price</stp>
         <tr r="B28" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>MMM</stp>
         <stp>last_update_date</stp>
         <tr r="J37" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>BMY</stp>
         <stp>last_update_date</stp>
-        <tr r="J11" s="1"/>
+        <tr r="J12" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>PM</stp>
         <stp>last_update_date</stp>
         <tr r="J47" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>ALB</stp>
         <stp>last_update_date</stp>
         <tr r="J6" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>GLD</stp>
         <stp>last_update_date</stp>
         <tr r="J27" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>NOK</stp>
         <stp>last_update_date</stp>
         <tr r="J42" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>last_update_date</stp>
         <tr r="J32" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>SNA</stp>
         <stp>last_update_date</stp>
         <tr r="J53" s="1"/>
       </tp>
       <tp>
-        <v>56.23</v>
+        <v>59.67</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>last_price</stp>
         <tr r="B20" s="1"/>
       </tp>
       <tp>
-        <v>46.29</v>
+        <v>46.4</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last_price</stp>
         <tr r="B18" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>EIX</stp>
         <stp>last_update_date</stp>
         <tr r="J23" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>DIS</stp>
         <stp>last_update_date</stp>
         <tr r="J21" s="1"/>
       </tp>
       <tp>
-        <v>248.01</v>
+        <v>249.19</v>
         <stp/>
         <stp>BABA</stp>
         <stp>last_price</stp>
         <tr r="B10" s="1"/>
       </tp>
       <tp>
-        <v>41.09</v>
+        <v>40.659999999999997</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>last_price</stp>
-        <tr r="B14" s="1"/>
+        <tr r="B15" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>CHL</stp>
         <stp>last_update_date</stp>
         <tr r="J17" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>last_update_date</stp>
         <tr r="J41" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>last_update_date</stp>
         <tr r="J57" s="1"/>
       </tp>
       <tp>
-        <v>3050.98</v>
+        <v>3008.8701000000001</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>last_price</stp>
         <tr r="B7" s="1"/>
       </tp>
       <tp>
-        <v>386.47989999999999</v>
+        <v>390.9</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>last_price</stp>
         <tr r="B2" s="1"/>
       </tp>
       <tp>
-        <v>2.605</v>
+        <v>2.6949999999999998</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>last_price</stp>
         <tr r="B4" s="1"/>
       </tp>
       <tp>
-        <v>98.668700000000001</v>
+        <v>100.48</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>last_price</stp>
         <tr r="B3" s="1"/>
       </tp>
       <tp>
-        <v>314.58</v>
+        <v>313.77999999999997</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>last_price</stp>
         <tr r="B9" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>last_update_date</stp>
         <tr r="J52" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>last_update_date</stp>
         <tr r="J28" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>VZ</stp>
         <stp>last_update_date</stp>
         <tr r="J62" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>NEM</stp>
         <stp>last_update_date</stp>
         <tr r="J40" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>last_update_date</stp>
         <tr r="J60" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>PEP</stp>
         <stp>last_update_date</stp>
         <tr r="J45" s="1"/>
       </tp>
-      <tp>
-        <v>518.64</v>
+      <tp t="s">
+        <v>15 Jul</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>last_update_date</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>523.26</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>last_price</stp>
         <tr r="B41" s="1"/>
       </tp>
       <tp>
-        <v>414</v>
+        <v>409.09</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>last_price</stp>
         <tr r="B44" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>ADM</stp>
         <stp>last_update_date</stp>
         <tr r="J5" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>MDP</stp>
         <stp>last_update_date</stp>
         <tr r="J35" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>MDT</stp>
         <stp>last_update_date</stp>
         <tr r="J36" s="1"/>
       </tp>
       <tp>
-        <v>207.13</v>
+        <v>208.04</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>last_price</stp>
         <tr r="B39" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>last_update_date</stp>
         <tr r="J51" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>last_update_date</stp>
         <tr r="J18" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>last_update_date</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>PFE</stp>
         <stp>last_update_date</stp>
         <tr r="J46" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>BABA</stp>
         <stp>last_update_date</stp>
         <tr r="J10" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>last_update_date</stp>
         <tr r="J4" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>last_update_date</stp>
         <tr r="J44" s="1"/>
       </tp>
       <tp>
-        <v>58.8</v>
+        <v>59.03</v>
         <stp/>
         <stp>INTC</stp>
         <stp>last_price</stp>
         <tr r="B29" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>CCL</stp>
         <stp>last_update_date</stp>
-        <tr r="J15" s="1"/>
         <tr r="J16" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>last_update_date</stp>
         <tr r="J9" s="1"/>
       </tp>
       <tp t="s">
-        <v>14 Jul</v>
+        <v>15 Jul</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>last_update_date</stp>
         <tr r="J39" s="1"/>
       </tp>
       <tp>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2700000000000001E-2</v>
         <stp/>
         <stp>VTR</stp>
         <stp>relative_change</stp>
         <tr r="I61" s="1"/>
       </tp>
       <tp>
-        <v>-3.66</v>
+        <v>0.61</v>
         <stp/>
         <stp>BABA</stp>
         <stp>absolute_change</stp>
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>4.5698999999999996</v>
+        <v>2.67</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>absolute_change</stp>
         <tr r="H2" s="1"/>
       </tp>
       <tp>
-        <v>0.80869999999999997</v>
+        <v>1.61</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>absolute_change</stp>
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>-5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-2</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>absolute_change</stp>
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>1.6400000000000001E-2</v>
+        <v>2.8899999999999999E-2</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>relative_change</stp>
         <tr r="I60" s="1"/>
       </tp>
       <tp>
-        <v>1.1100000000000001</v>
+        <v>0.32</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>absolute_change</stp>
         <tr r="H51" s="1"/>
       </tp>
       <tp>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.5599999999999999E-2</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>relative_change</stp>
         <tr r="I52" s="1"/>
       </tp>
       <tp>
-        <v>-2.6499999999999999E-2</v>
+        <v>7.5399999999999995E-2</v>
         <stp/>
         <stp>SPG</stp>
         <stp>relative_change</stp>
         <tr r="I54" s="1"/>
       </tp>
       <tp>
-        <v>9.7999999999999997E-3</v>
+        <v>9.5999999999999992E-3</v>
         <stp/>
         <stp>SPY</stp>
         <stp>relative_change</stp>
         <tr r="I55" s="1"/>
       </tp>
       <tp>
-        <v>1.6899999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
         <stp/>
         <stp>SNA</stp>
         <stp>relative_change</stp>
         <tr r="I53" s="1"/>
       </tp>
       <tp>
-        <v>-2.5999999999999999E-3</v>
+        <v>-4.5999999999999999E-3</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>relative_change</stp>
         <tr r="I28" s="1"/>
       </tp>
       <tp>
-        <v>3.8E-3</v>
+        <v>8.0000000000000004E-4</v>
         <stp/>
         <stp>INTC</stp>
         <stp>relative_change</stp>
         <tr r="I29" s="1"/>
       </tp>
       <tp>
-        <v>2.8E-3</v>
+        <v>2E-3</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>relative_change</stp>
         <tr r="I50" s="1"/>
       </tp>
       <tp>
-        <v>-6.86</v>
+        <v>-1.62</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>absolute_change</stp>
         <tr r="H41" s="1"/>
       </tp>
       <tp>
-        <v>-1.7100000000000001E-2</v>
+        <v>-2.4400000000000002E-2</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>relative_change</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>1.0999999999999999E-2</v>
+        <v>3.2800000000000003E-2</v>
         <stp/>
         <stp>PRU</stp>
         <stp>relative_change</stp>
         <tr r="I48" s="1"/>
       </tp>
       <tp>
-        <v>3.8999999999999998E-3</v>
+        <v>-1.35E-2</v>
         <stp/>
         <stp>PEP</stp>
         <stp>relative_change</stp>
         <tr r="I45" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.3599999999999999E-2</v>
         <stp/>
         <stp>PFE</stp>
         <stp>relative_change</stp>
@@ -3175,948 +3214,966 @@
         <tr r="L1" s="1"/>
       </tp>
       <tp>
-        <v>39.880000000000003</v>
+        <v>40.96</v>
         <stp/>
         <stp>MO</stp>
         <stp>low</stp>
         <tr r="E38" s="1"/>
       </tp>
       <tp>
-        <v>288.75</v>
+        <v>301.39</v>
         <stp/>
         <stp>MA</stp>
         <stp>low</stp>
         <tr r="E34" s="1"/>
       </tp>
       <tp>
-        <v>59.96</v>
+        <v>61.6</v>
         <stp/>
         <stp>JD</stp>
         <stp>low</stp>
         <tr r="E31" s="1"/>
       </tp>
       <tp>
-        <v>22.035</v>
+        <v>22.71</v>
         <stp/>
         <stp>IQ</stp>
         <stp>low</stp>
         <tr r="E30" s="1"/>
       </tp>
       <tp>
-        <v>141.12</v>
+        <v>145.22</v>
         <stp/>
         <stp>GD</stp>
         <stp>low</stp>
         <tr r="E26" s="1"/>
       </tp>
       <tp>
-        <v>232.03</v>
+        <v>238.05</v>
         <stp/>
         <stp>FB</stp>
         <stp>low</stp>
         <tr r="E25" s="1"/>
       </tp>
       <tp>
-        <v>54.284999999999997</v>
+        <v>55.022300000000001</v>
         <stp/>
         <stp>VZ</stp>
         <stp>low</stp>
         <tr r="E62" s="1"/>
       </tp>
       <tp>
-        <v>72.41</v>
+        <v>74.55</v>
         <stp/>
         <stp>PM</stp>
         <stp>low</stp>
         <tr r="E47" s="1"/>
       </tp>
       <tp>
-        <v>-1.0549999999999999</v>
+        <v>-15.17</v>
         <stp/>
         <stp>SHOP</stp>
         <stp>absolute_change</stp>
         <tr r="H52" s="1"/>
       </tp>
       <tp>
-        <v>2.69E-2</v>
+        <v>7.4999999999999997E-3</v>
         <stp/>
         <stp>SCCO</stp>
         <stp>relative_change</stp>
         <tr r="I51" s="1"/>
       </tp>
       <tp>
-        <v>0.39</v>
+        <v>0.7</v>
         <stp/>
         <stp>VIAC</stp>
         <stp>absolute_change</stp>
         <tr r="H60" s="1"/>
       </tp>
       <tp>
-        <v>8.3000000000000001E-3</v>
+        <v>1.6299999999999999E-2</v>
         <stp/>
         <stp>ABBV</stp>
         <stp>relative_change</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>-1.9E-3</v>
+        <v>2.86E-2</v>
         <stp/>
         <stp>ABEV</stp>
         <stp>relative_change</stp>
         <tr r="I4" s="1"/>
       </tp>
       <tp>
-        <v>1.2E-2</v>
+        <v>6.8999999999999999E-3</v>
         <stp/>
         <stp>AAPL</stp>
         <stp>relative_change</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
-        <v>-1.4500000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
         <stp/>
         <stp>BABA</stp>
         <stp>relative_change</stp>
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>0.26</v>
+        <v>0.8</v>
         <stp/>
         <stp>VTR</stp>
         <stp>absolute_change</stp>
         <tr r="H61" s="1"/>
       </tp>
       <tp>
-        <v>11589564</v>
+        <v>7383251</v>
         <stp/>
         <stp>JD</stp>
         <stp>volume</stp>
         <tr r="G31" s="1"/>
       </tp>
       <tp>
-        <v>4823604</v>
+        <v>5407575</v>
         <stp/>
         <stp>IQ</stp>
         <stp>volume</stp>
         <tr r="G30" s="1"/>
       </tp>
       <tp>
-        <v>3692802</v>
+        <v>4620559</v>
         <stp/>
         <stp>MA</stp>
         <stp>volume</stp>
         <tr r="G34" s="1"/>
       </tp>
       <tp>
-        <v>5228706</v>
+        <v>5856390</v>
         <stp/>
         <stp>MO</stp>
         <stp>volume</stp>
         <tr r="G38" s="1"/>
       </tp>
       <tp>
-        <v>19582048</v>
+        <v>18305592</v>
         <stp/>
         <stp>FB</stp>
         <stp>volume</stp>
         <tr r="G25" s="1"/>
       </tp>
       <tp>
-        <v>631200</v>
+        <v>1667836</v>
         <stp/>
         <stp>GD</stp>
         <stp>volume</stp>
         <tr r="G26" s="1"/>
       </tp>
       <tp>
-        <v>3248959</v>
+        <v>3217429</v>
         <stp/>
         <stp>PM</stp>
         <stp>volume</stp>
         <tr r="G47" s="1"/>
       </tp>
       <tp>
-        <v>11424906</v>
+        <v>11185794</v>
         <stp/>
         <stp>VZ</stp>
         <stp>volume</stp>
         <tr r="G62" s="1"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.48</v>
         <stp/>
         <stp>PFE</stp>
         <stp>absolute_change</stp>
         <tr r="H46" s="1"/>
       </tp>
       <tp>
-        <v>0.53</v>
+        <v>-1.83</v>
         <stp/>
         <stp>PEP</stp>
         <stp>absolute_change</stp>
         <tr r="H45" s="1"/>
       </tp>
       <tp>
-        <v>0.67</v>
+        <v>2.0299999999999998</v>
         <stp/>
         <stp>PRU</stp>
         <stp>absolute_change</stp>
         <tr r="H48" s="1"/>
       </tp>
       <tp>
-        <v>-53.02</v>
+        <v>-75.129900000000006</v>
         <stp/>
         <stp>AMZN</stp>
         <stp>absolute_change</stp>
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>-1.3100000000000001E-2</v>
+        <v>-3.0999999999999999E-3</v>
         <stp/>
         <stp>NFLX</stp>
         <stp>relative_change</stp>
         <tr r="I41" s="1"/>
       </tp>
       <tp>
-        <v>0.72</v>
+        <v>0.53</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>absolute_change</stp>
         <tr r="H50" s="1"/>
       </tp>
       <tp>
-        <v>192.67500000000001</v>
+        <v>197.76499999999999</v>
         <stp/>
         <stp>V</stp>
         <stp>high</stp>
         <tr r="D59" s="1"/>
       </tp>
       <tp>
-        <v>30.1</v>
+        <v>30.13</v>
         <stp/>
         <stp>T</stp>
         <stp>high</stp>
         <tr r="D56" s="1"/>
       </tp>
       <tp>
-        <v>0.22</v>
+        <v>0.05</v>
         <stp/>
         <stp>INTC</stp>
         <stp>absolute_change</stp>
         <tr r="H29" s="1"/>
       </tp>
       <tp>
-        <v>24046959</v>
+        <v>28403556</v>
         <stp/>
         <stp>T</stp>
         <stp>volume</stp>
         <tr r="G56" s="1"/>
       </tp>
       <tp>
-        <v>6137036</v>
+        <v>6818439</v>
         <stp/>
         <stp>V</stp>
         <stp>volume</stp>
         <tr r="G59" s="1"/>
       </tp>
       <tp>
-        <v>2.2599999999999998</v>
+        <v>5.05</v>
         <stp/>
         <stp>SNA</stp>
         <stp>absolute_change</stp>
         <tr r="H53" s="1"/>
       </tp>
       <tp>
-        <v>-3.94</v>
+        <v>-6.94</v>
         <stp/>
         <stp>GOOG</stp>
         <stp>absolute_change</stp>
         <tr r="H28" s="1"/>
       </tp>
       <tp>
-        <v>3.09</v>
+        <v>3.05</v>
         <stp/>
         <stp>SPY</stp>
         <stp>absolute_change</stp>
         <tr r="H55" s="1"/>
       </tp>
       <tp>
-        <v>-1.69</v>
+        <v>4.67</v>
         <stp/>
         <stp>SPG</stp>
         <stp>absolute_change</stp>
         <tr r="H54" s="1"/>
       </tp>
       <tp>
-        <v>1.41</v>
+        <v>1.92</v>
         <stp/>
         <stp>LYB</stp>
         <stp>absolute_change</stp>
         <tr r="H33" s="1"/>
       </tp>
       <tp>
-        <v>3.8999999999999998E-3</v>
+        <v>8.9999999999999998E-4</v>
         <stp/>
         <stp>GLD</stp>
         <stp>relative_change</stp>
         <tr r="I27" s="1"/>
       </tp>
       <tp>
-        <v>3.93</v>
+        <v>0.8</v>
         <stp/>
         <stp>MMM</stp>
         <stp>absolute_change</stp>
         <tr r="H37" s="1"/>
       </tp>
       <tp>
-        <v>-3.61E-2</v>
+        <v>-1.4999999999999999E-2</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>relative_change</stp>
-        <tr r="I14" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.19</v>
+        <tr r="I15" s="1"/>
+      </tp>
+      <tp>
+        <v>0.96</v>
         <stp/>
         <stp>MDP</stp>
         <stp>absolute_change</stp>
         <tr r="H35" s="1"/>
       </tp>
       <tp>
-        <v>1.44</v>
+        <v>2.54</v>
         <stp/>
         <stp>MDT</stp>
         <stp>absolute_change</stp>
         <tr r="H36" s="1"/>
       </tp>
       <tp>
-        <v>-2.7000000000000001E-3</v>
+        <v>-1.4E-3</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>relative_change</stp>
         <tr r="I49" s="1"/>
       </tp>
       <tp>
-        <v>0.13</v>
+        <v>0.01</v>
         <stp/>
         <stp>NOK</stp>
         <stp>absolute_change</stp>
         <tr r="H42" s="1"/>
       </tp>
       <tp>
-        <v>-5.9999999999999995E-4</v>
+        <v>4.2799999999999998E-2</v>
         <stp/>
         <stp>EPD</stp>
         <stp>relative_change</stp>
         <tr r="I24" s="1"/>
       </tp>
       <tp>
-        <v>2.0089999999999999</v>
+        <v>0.32</v>
         <stp/>
         <stp>NEM</stp>
         <stp>absolute_change</stp>
         <tr r="H40" s="1"/>
       </tp>
       <tp>
-        <v>0.98</v>
+        <v>0.63</v>
         <stp/>
         <stp>NUE</stp>
         <stp>absolute_change</stp>
         <tr r="H43" s="1"/>
       </tp>
       <tp>
-        <v>1.7999999999999999E-2</v>
+        <v>-2.47E-2</v>
         <stp/>
         <stp>EIX</stp>
         <stp>relative_change</stp>
         <tr r="I23" s="1"/>
       </tp>
       <tp>
-        <v>8.2000000000000007E-3</v>
+        <v>-1.55E-2</v>
         <stp/>
         <stp>DUK</stp>
         <stp>relative_change</stp>
         <tr r="I22" s="1"/>
       </tp>
       <tp>
-        <v>29.939900000000002</v>
+        <v>29.21</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>absolute_change</stp>
         <tr r="H57" s="1"/>
       </tp>
       <tp>
-        <v>0.36</v>
+        <v>0.14000000000000001</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>absolute_change</stp>
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>0.06</v>
+        <v>-0.31</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>absolute_change</stp>
         <tr r="H39" s="1"/>
       </tp>
       <tp>
-        <v>1.84E-2</v>
+        <v>1.8800000000000001E-2</v>
         <stp/>
         <stp>DIS</stp>
         <stp>relative_change</stp>
         <tr r="I21" s="1"/>
       </tp>
       <tp>
-        <v>1.5699999999999999E-2</v>
+        <v>3.0499999999999999E-2</v>
         <stp/>
         <stp>CSL</stp>
         <stp>relative_change</stp>
         <tr r="I19" s="1"/>
       </tp>
       <tp>
-        <v>-1.7000000000000001E-2</v>
+        <v>0.16220000000000001</v>
         <stp/>
         <stp>CCL</stp>
         <stp>relative_change</stp>
         <tr r="I16" s="1"/>
-        <tr r="I15" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.23</v>
+      </tp>
+      <tp>
+        <v>3.2</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>absolute_change</stp>
         <tr r="H20" s="1"/>
       </tp>
       <tp>
-        <v>-3.0000000000000001E-3</v>
+        <v>-1.0699999999999999E-2</v>
         <stp/>
         <stp>CHL</stp>
         <stp>relative_change</stp>
         <tr r="I17" s="1"/>
       </tp>
       <tp>
-        <v>187.18</v>
+        <v>194.51</v>
         <stp/>
         <stp>V</stp>
         <stp>low</stp>
         <tr r="E59" s="1"/>
       </tp>
       <tp>
-        <v>29.53</v>
+        <v>29.85</v>
         <stp/>
         <stp>T</stp>
         <stp>low</stp>
         <tr r="E56" s="1"/>
       </tp>
       <tp>
-        <v>9.5999999999999992E-3</v>
+        <v>-1.55E-2</v>
         <stp/>
         <stp>BTI</stp>
         <stp>relative_change</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.01</v>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1499999999999998E-2</v>
         <stp/>
         <stp>BUD</stp>
         <stp>relative_change</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp>
-        <v>2.9999999999999997E-4</v>
+        <tr r="I14" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4599999999999999E-2</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>relative_change</stp>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp>
+        <v>2.3800000000000002E-2</v>
         <stp/>
         <stp>BMY</stp>
         <stp>relative_change</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>2.6850000000000001</v>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39500000000000002</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>absolute_change</stp>
         <tr r="H32" s="1"/>
       </tp>
       <tp>
-        <v>1.12E-2</v>
+        <v>5.0000000000000001E-4</v>
         <stp/>
         <stp>AVB</stp>
         <stp>relative_change</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>67913428</v>
+        <v>79040762</v>
         <stp/>
         <stp>SPY</stp>
         <stp>volume</stp>
         <tr r="G55" s="1"/>
       </tp>
       <tp>
-        <v>4253053</v>
+        <v>6691663</v>
         <stp/>
         <stp>SPG</stp>
         <stp>volume</stp>
         <tr r="G54" s="1"/>
       </tp>
       <tp>
-        <v>224543</v>
+        <v>329882</v>
         <stp/>
         <stp>SNA</stp>
         <stp>volume</stp>
         <tr r="G53" s="1"/>
       </tp>
       <tp>
-        <v>59945989</v>
+        <v>51768136</v>
         <stp/>
         <stp>QQQ</stp>
         <stp>volume</stp>
         <tr r="G50" s="1"/>
       </tp>
       <tp>
-        <v>2074947</v>
+        <v>2601754</v>
         <stp/>
         <stp>PRU</stp>
         <stp>volume</stp>
         <tr r="G48" s="1"/>
       </tp>
       <tp>
-        <v>22698343</v>
+        <v>21014112</v>
         <stp/>
         <stp>PFE</stp>
         <stp>volume</stp>
         <tr r="G46" s="1"/>
       </tp>
       <tp>
-        <v>4020696</v>
+        <v>4963675</v>
         <stp/>
         <stp>PEP</stp>
         <stp>volume</stp>
         <tr r="G45" s="1"/>
       </tp>
       <tp>
-        <v>3.27</v>
+        <v>-1.3</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>absolute_change</stp>
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>1433057</v>
+        <v>2445051</v>
         <stp/>
         <stp>VTR</stp>
         <stp>volume</stp>
         <tr r="G61" s="1"/>
       </tp>
       <tp>
-        <v>11.91</v>
+        <v>-5.99</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>absolute_change</stp>
         <tr r="H44" s="1"/>
       </tp>
       <tp>
-        <v>1.6299999999999999E-2</v>
+        <v>1.11E-2</v>
         <stp/>
         <stp>ADM</stp>
         <stp>relative_change</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>4302897</v>
+        <v>6357063</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>volume</stp>
         <tr r="G32" s="1"/>
       </tp>
       <tp>
-        <v>1059210</v>
+        <v>1292206</v>
         <stp/>
         <stp>NUE</stp>
         <stp>volume</stp>
         <tr r="G43" s="1"/>
       </tp>
       <tp>
-        <v>5434920</v>
+        <v>5193815</v>
         <stp/>
         <stp>NEM</stp>
         <stp>volume</stp>
         <tr r="G40" s="1"/>
       </tp>
       <tp>
-        <v>36167635</v>
+        <v>29416908</v>
         <stp/>
         <stp>NOK</stp>
         <stp>volume</stp>
         <tr r="G42" s="1"/>
       </tp>
       <tp>
-        <v>4040946</v>
+        <v>4967628</v>
         <stp/>
         <stp>MDT</stp>
         <stp>volume</stp>
         <tr r="G36" s="1"/>
       </tp>
       <tp>
-        <v>350940</v>
+        <v>880178</v>
         <stp/>
         <stp>MDP</stp>
         <stp>volume</stp>
         <tr r="G35" s="1"/>
       </tp>
       <tp>
-        <v>2059399</v>
+        <v>2550604</v>
         <stp/>
         <stp>MMM</stp>
         <stp>volume</stp>
         <tr r="G37" s="1"/>
       </tp>
       <tp>
-        <v>1058648</v>
+        <v>1392506</v>
         <stp/>
         <stp>LYB</stp>
         <stp>volume</stp>
         <tr r="G33" s="1"/>
       </tp>
       <tp>
-        <v>568961</v>
+        <v>492945</v>
         <stp/>
         <stp>CSL</stp>
         <stp>volume</stp>
         <tr r="G19" s="1"/>
       </tp>
       <tp>
-        <v>2.93E-2</v>
+        <v>2.9000000000000001E-2</v>
         <stp/>
         <stp>ALB</stp>
         <stp>relative_change</stp>
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>24740566</v>
+        <v>69552576</v>
         <stp/>
         <stp>CCL</stp>
         <stp>volume</stp>
-        <tr r="G15" s="1"/>
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>839766</v>
+        <v>946736</v>
         <stp/>
         <stp>CHL</stp>
         <stp>volume</stp>
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>1597939</v>
+        <v>2305351</v>
         <stp/>
         <stp>BTI</stp>
         <stp>volume</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>1443702</v>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>1962523</v>
         <stp/>
         <stp>BUD</stp>
         <stp>volume</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>6238928</v>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp>
+        <v>458030</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>volume</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>7360632</v>
         <stp/>
         <stp>BMY</stp>
         <stp>volume</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>330686</v>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>677659</v>
         <stp/>
         <stp>AVB</stp>
         <stp>volume</stp>
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>1468242</v>
+        <v>1841032</v>
         <stp/>
         <stp>ADM</stp>
         <stp>volume</stp>
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>1070964</v>
+        <v>1274410</v>
         <stp/>
         <stp>ALB</stp>
         <stp>volume</stp>
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>8116835</v>
+        <v>7420950</v>
         <stp/>
         <stp>GLD</stp>
         <stp>volume</stp>
         <tr r="G27" s="1"/>
       </tp>
       <tp>
-        <v>4413476</v>
+        <v>6568453</v>
         <stp/>
         <stp>EPD</stp>
         <stp>volume</stp>
         <tr r="G24" s="1"/>
       </tp>
       <tp>
-        <v>1875636</v>
+        <v>2180540</v>
         <stp/>
         <stp>EIX</stp>
         <stp>volume</stp>
         <tr r="G23" s="1"/>
       </tp>
       <tp>
-        <v>2150800</v>
+        <v>3839734</v>
         <stp/>
         <stp>DUK</stp>
         <stp>volume</stp>
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>9815471</v>
+        <v>14100833</v>
         <stp/>
         <stp>DIS</stp>
         <stp>volume</stp>
         <tr r="G21" s="1"/>
       </tp>
       <tp>
-        <v>29.72</v>
+        <v>30.07</v>
         <stp/>
         <stp>T</stp>
         <stp>open</stp>
         <tr r="C56" s="1"/>
       </tp>
       <tp>
-        <v>189.5</v>
+        <v>195.23</v>
         <stp/>
         <stp>V</stp>
         <stp>open</stp>
         <tr r="C59" s="1"/>
       </tp>
       <tp>
-        <v>0.32</v>
+        <v>1.28</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>absolute_change</stp>
         <tr r="H58" s="1"/>
       </tp>
       <tp>
-        <v>2.14</v>
+        <v>2.2349999999999999</v>
         <stp/>
         <stp>DIS</stp>
         <stp>absolute_change</stp>
         <tr r="H21" s="1"/>
       </tp>
       <tp>
-        <v>7.7999999999999996E-3</v>
+        <v>3.0000000000000001E-3</v>
         <stp/>
         <stp>CSCO</stp>
         <stp>relative_change</stp>
         <tr r="I18" s="1"/>
       </tp>
       <tp>
-        <v>2.9999999999999997E-4</v>
+        <v>-1.5E-3</v>
         <stp/>
         <stp>MSFT</stp>
         <stp>relative_change</stp>
         <tr r="I39" s="1"/>
       </tp>
       <tp>
-        <v>0.66500000000000004</v>
+        <v>-1.27</v>
         <stp/>
         <stp>DUK</stp>
         <stp>absolute_change</stp>
         <tr r="H22" s="1"/>
       </tp>
       <tp>
-        <v>0.02</v>
+        <v>1.9300000000000001E-2</v>
         <stp/>
         <stp>TSLA</stp>
         <stp>relative_change</stp>
         <tr r="I57" s="1"/>
       </tp>
       <tp>
-        <v>2.4500000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
         <stp/>
         <stp>NUE</stp>
         <stp>relative_change</stp>
         <tr r="I43" s="1"/>
       </tp>
       <tp>
-        <v>1.01</v>
+        <v>-1.4</v>
         <stp/>
         <stp>EIX</stp>
         <stp>absolute_change</stp>
         <tr r="H23" s="1"/>
       </tp>
       <tp>
-        <v>3.3700000000000001E-2</v>
+        <v>5.1999999999999998E-3</v>
         <stp/>
         <stp>NEM</stp>
         <stp>relative_change</stp>
         <tr r="I40" s="1"/>
       </tp>
       <tp>
-        <v>-0.46</v>
+        <v>-0.24</v>
         <stp/>
         <stp>PYPL</stp>
         <stp>absolute_change</stp>
         <tr r="H49" s="1"/>
       </tp>
       <tp>
-        <v>3.1099999999999999E-2</v>
+        <v>2.3E-3</v>
         <stp/>
         <stp>NOK</stp>
         <stp>relative_change</stp>
         <tr r="I42" s="1"/>
       </tp>
       <tp>
-        <v>-0.01</v>
+        <v>0.73180000000000001</v>
         <stp/>
         <stp>EPD</stp>
         <stp>absolute_change</stp>
         <tr r="H24" s="1"/>
       </tp>
       <tp>
-        <v>1.55E-2</v>
+        <v>2.6800000000000001E-2</v>
         <stp/>
         <stp>MDT</stp>
         <stp>relative_change</stp>
         <tr r="I36" s="1"/>
       </tp>
       <tp>
-        <v>-1.3599999999999999E-2</v>
+        <v>6.9699999999999998E-2</v>
         <stp/>
         <stp>MDP</stp>
         <stp>relative_change</stp>
         <tr r="I35" s="1"/>
       </tp>
       <tp>
-        <v>2.5399999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
         <stp/>
         <stp>MMM</stp>
         <stp>relative_change</stp>
         <tr r="I37" s="1"/>
       </tp>
       <tp>
-        <v>-1.54</v>
+        <v>-0.62</v>
         <stp/>
         <stp>BZUN</stp>
         <stp>absolute_change</stp>
-        <tr r="H14" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65500000000000003</v>
+        <tr r="H15" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16</v>
         <stp/>
         <stp>GLD</stp>
         <stp>absolute_change</stp>
         <tr r="H27" s="1"/>
       </tp>
       <tp>
-        <v>2.1600000000000001E-2</v>
+        <v>2.87E-2</v>
         <stp/>
         <stp>LYB</stp>
         <stp>relative_change</stp>
         <tr r="I33" s="1"/>
       </tp>
       <tp>
-        <v>9.4999999999999998E-3</v>
+        <v>3.7199999999999997E-2</v>
         <stp/>
         <stp>TWTR</stp>
         <stp>relative_change</stp>
         <tr r="I58" s="1"/>
       </tp>
       <tp>
-        <v>2.39</v>
+        <v>2.44</v>
         <stp/>
         <stp>ALB</stp>
         <stp>absolute_change</stp>
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>0.65</v>
+        <v>0.45</v>
         <stp/>
         <stp>ADM</stp>
         <stp>absolute_change</stp>
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>2.9600000000000001E-2</v>
+        <v>-1.44E-2</v>
         <stp/>
         <stp>NVDA</stp>
         <stp>relative_change</stp>
         <tr r="I44" s="1"/>
       </tp>
       <tp>
-        <v>1.0500000000000001E-2</v>
+        <v>-4.1000000000000003E-3</v>
         <stp/>
         <stp>AVGO</stp>
         <stp>relative_change</stp>
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>1.7</v>
+        <v>0.08</v>
         <stp/>
         <stp>AVB</stp>
         <stp>absolute_change</stp>
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1.8499999999999999E-2</v>
+        <v>2.7000000000000001E-3</v>
         <stp/>
         <stp>JNJ</stp>
         <stp>relative_change</stp>
         <tr r="I32" s="1"/>
       </tp>
       <tp>
-        <v>0.02</v>
+        <v>1.38</v>
         <stp/>
         <stp>BMY</stp>
         <stp>absolute_change</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7862</v>
+        <stp/>
+        <stp>BEP</stp>
+        <stp>absolute_change</stp>
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>0.52500000000000002</v>
+        <v>1.1399999999999999</v>
         <stp/>
         <stp>BUD</stp>
         <stp>absolute_change</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.35</v>
+        <tr r="H14" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.56999999999999995</v>
         <stp/>
         <stp>BTI</stp>
         <stp>absolute_change</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>-4.1000000000000003E-3</v>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>5.67E-2</v>
         <stp/>
         <stp>CTSH</stp>
         <stp>relative_change</stp>
         <tr r="I20" s="1"/>
       </tp>
       <tp>
-        <v>-0.105</v>
+        <v>-0.38</v>
         <stp/>
         <stp>CHL</stp>
         <stp>absolute_change</stp>
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>-0.26</v>
+        <v>2.44</v>
         <stp/>
         <stp>CCL</stp>
         <stp>absolute_change</stp>
         <tr r="H16" s="1"/>
-        <tr r="H15" s="1"/>
-      </tp>
-      <tp>
-        <v>1.8</v>
+      </tp>
+      <tp>
+        <v>3.57</v>
         <stp/>
         <stp>CSL</stp>
         <stp>absolute_change</stp>
@@ -4467,8 +4524,8 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4524,39 +4581,39 @@
       </c>
       <c r="B2" s="2">
         <f>RTD("stockrow","",$A2,B$1)</f>
-        <v>386.47989999999999</v>
+        <v>390.9</v>
       </c>
       <c r="C2" s="2">
         <f>RTD("stockrow","",$A2,C$1)</f>
-        <v>379.36</v>
+        <v>395.96</v>
       </c>
       <c r="D2" s="2">
         <f>RTD("stockrow","",$A2,D$1)</f>
-        <v>387.46010000000001</v>
+        <v>396.98</v>
       </c>
       <c r="E2" s="2">
         <f>RTD("stockrow","",$A2,E$1)</f>
-        <v>375.52</v>
+        <v>385.9701</v>
       </c>
       <c r="F2" s="2">
         <f>RTD("stockrow","",$A2,F$1)</f>
-        <v>386.47989999999999</v>
+        <v>390.9</v>
       </c>
       <c r="G2">
         <f>RTD("stockrow","",$A2,G$1)</f>
-        <v>35556217</v>
+        <v>37558728</v>
       </c>
       <c r="H2" s="2">
         <f>RTD("stockrow","",$A2,H$1)</f>
-        <v>4.5698999999999996</v>
+        <v>2.67</v>
       </c>
       <c r="I2" s="1">
         <f>RTD("stockrow","",$A2,I$1)</f>
-        <v>1.2E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="J2" t="str">
         <f>RTD("stockrow","",$A2,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4565,39 +4622,39 @@
       </c>
       <c r="B3" s="2">
         <f>RTD("stockrow","",$A3,B$1)</f>
-        <v>98.668700000000001</v>
+        <v>100.48</v>
       </c>
       <c r="C3" s="2">
         <f>RTD("stockrow","",$A3,C$1)</f>
-        <v>96.97</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <f>RTD("stockrow","",$A3,D$1)</f>
-        <v>98.678700000000006</v>
+        <v>100.48</v>
       </c>
       <c r="E3" s="2">
         <f>RTD("stockrow","",$A3,E$1)</f>
-        <v>95.94</v>
+        <v>98.82</v>
       </c>
       <c r="F3" s="2">
         <f>RTD("stockrow","",$A3,F$1)</f>
-        <v>98.668700000000001</v>
+        <v>100.48</v>
       </c>
       <c r="G3">
         <f>RTD("stockrow","",$A3,G$1)</f>
-        <v>4572088</v>
+        <v>4556852</v>
       </c>
       <c r="H3" s="2">
         <f>RTD("stockrow","",$A3,H$1)</f>
-        <v>0.80869999999999997</v>
+        <v>1.61</v>
       </c>
       <c r="I3" s="1">
         <f>RTD("stockrow","",$A3,I$1)</f>
-        <v>8.3000000000000001E-3</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="J3" t="str">
         <f>RTD("stockrow","",$A3,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4606,39 +4663,39 @@
       </c>
       <c r="B4" s="2">
         <f>RTD("stockrow","",$A4,B$1)</f>
-        <v>2.605</v>
+        <v>2.6949999999999998</v>
       </c>
       <c r="C4" s="2">
         <f>RTD("stockrow","",$A4,C$1)</f>
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="D4" s="2">
         <f>RTD("stockrow","",$A4,D$1)</f>
-        <v>2.62</v>
+        <v>2.7185000000000001</v>
       </c>
       <c r="E4" s="2">
         <f>RTD("stockrow","",$A4,E$1)</f>
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="F4" s="2">
         <f>RTD("stockrow","",$A4,F$1)</f>
-        <v>2.605</v>
+        <v>2.6949999999999998</v>
       </c>
       <c r="G4">
         <f>RTD("stockrow","",$A4,G$1)</f>
-        <v>45831964</v>
+        <v>30470914</v>
       </c>
       <c r="H4" s="2">
         <f>RTD("stockrow","",$A4,H$1)</f>
-        <v>-5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I4" s="1">
         <f>RTD("stockrow","",$A4,I$1)</f>
-        <v>-1.9E-3</v>
+        <v>2.86E-2</v>
       </c>
       <c r="J4" t="str">
         <f>RTD("stockrow","",$A4,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4647,39 +4704,39 @@
       </c>
       <c r="B5" s="2">
         <f>RTD("stockrow","",$A5,B$1)</f>
-        <v>40.409999999999997</v>
+        <v>40.89</v>
       </c>
       <c r="C5" s="2">
         <f>RTD("stockrow","",$A5,C$1)</f>
-        <v>39.79</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <f>RTD("stockrow","",$A5,D$1)</f>
-        <v>40.57</v>
+        <v>41.2</v>
       </c>
       <c r="E5" s="2">
         <f>RTD("stockrow","",$A5,E$1)</f>
-        <v>39.44</v>
+        <v>40.61</v>
       </c>
       <c r="F5" s="2">
         <f>RTD("stockrow","",$A5,F$1)</f>
-        <v>40.409999999999997</v>
+        <v>40.89</v>
       </c>
       <c r="G5">
         <f>RTD("stockrow","",$A5,G$1)</f>
-        <v>1468242</v>
+        <v>1841032</v>
       </c>
       <c r="H5" s="2">
         <f>RTD("stockrow","",$A5,H$1)</f>
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="I5" s="1">
         <f>RTD("stockrow","",$A5,I$1)</f>
-        <v>1.6299999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="J5" t="str">
         <f>RTD("stockrow","",$A5,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4688,39 +4745,39 @@
       </c>
       <c r="B6" s="2">
         <f>RTD("stockrow","",$A6,B$1)</f>
-        <v>83.95</v>
+        <v>86.59</v>
       </c>
       <c r="C6" s="2">
         <f>RTD("stockrow","",$A6,C$1)</f>
-        <v>81.56</v>
+        <v>85.88</v>
       </c>
       <c r="D6" s="2">
         <f>RTD("stockrow","",$A6,D$1)</f>
-        <v>83.97</v>
+        <v>86.825000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>RTD("stockrow","",$A6,E$1)</f>
-        <v>80.92</v>
+        <v>85.16</v>
       </c>
       <c r="F6" s="2">
         <f>RTD("stockrow","",$A6,F$1)</f>
-        <v>83.95</v>
+        <v>86.59</v>
       </c>
       <c r="G6">
         <f>RTD("stockrow","",$A6,G$1)</f>
-        <v>1070964</v>
+        <v>1274410</v>
       </c>
       <c r="H6" s="2">
         <f>RTD("stockrow","",$A6,H$1)</f>
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="I6" s="1">
         <f>RTD("stockrow","",$A6,I$1)</f>
-        <v>2.93E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="J6" t="str">
         <f>RTD("stockrow","",$A6,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4729,39 +4786,39 @@
       </c>
       <c r="B7" s="2">
         <f>RTD("stockrow","",$A7,B$1)</f>
-        <v>3050.98</v>
+        <v>3008.8701000000001</v>
       </c>
       <c r="C7" s="2">
         <f>RTD("stockrow","",$A7,C$1)</f>
-        <v>3089</v>
+        <v>3080.23</v>
       </c>
       <c r="D7" s="2">
         <f>RTD("stockrow","",$A7,D$1)</f>
-        <v>3125.5</v>
+        <v>3097</v>
       </c>
       <c r="E7" s="2">
         <f>RTD("stockrow","",$A7,E$1)</f>
-        <v>2950</v>
+        <v>2973.3701000000001</v>
       </c>
       <c r="F7" s="2">
         <f>RTD("stockrow","",$A7,F$1)</f>
-        <v>3050.98</v>
+        <v>3008.8701000000001</v>
       </c>
       <c r="G7">
         <f>RTD("stockrow","",$A7,G$1)</f>
-        <v>6429508</v>
+        <v>5693652</v>
       </c>
       <c r="H7" s="2">
         <f>RTD("stockrow","",$A7,H$1)</f>
-        <v>-53.02</v>
+        <v>-75.129900000000006</v>
       </c>
       <c r="I7" s="1">
         <f>RTD("stockrow","",$A7,I$1)</f>
-        <v>-1.7100000000000001E-2</v>
+        <v>-2.4400000000000002E-2</v>
       </c>
       <c r="J7" t="str">
         <f>RTD("stockrow","",$A7,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4770,39 +4827,39 @@
       </c>
       <c r="B8" s="2">
         <f>RTD("stockrow","",$A8,B$1)</f>
-        <v>153.84</v>
+        <v>154.56</v>
       </c>
       <c r="C8" s="2">
         <f>RTD("stockrow","",$A8,C$1)</f>
-        <v>151.86000000000001</v>
+        <v>156.07</v>
       </c>
       <c r="D8" s="2">
         <f>RTD("stockrow","",$A8,D$1)</f>
-        <v>155.38999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="E8" s="2">
         <f>RTD("stockrow","",$A8,E$1)</f>
-        <v>151.38</v>
+        <v>152.52500000000001</v>
       </c>
       <c r="F8" s="2">
         <f>RTD("stockrow","",$A8,F$1)</f>
-        <v>153.84</v>
+        <v>154.56</v>
       </c>
       <c r="G8">
         <f>RTD("stockrow","",$A8,G$1)</f>
-        <v>330686</v>
+        <v>677659</v>
       </c>
       <c r="H8" s="2">
         <f>RTD("stockrow","",$A8,H$1)</f>
-        <v>1.7</v>
+        <v>0.08</v>
       </c>
       <c r="I8" s="1">
         <f>RTD("stockrow","",$A8,I$1)</f>
-        <v>1.12E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J8" t="str">
         <f>RTD("stockrow","",$A8,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4811,39 +4868,39 @@
       </c>
       <c r="B9" s="2">
         <f>RTD("stockrow","",$A9,B$1)</f>
-        <v>314.58</v>
+        <v>313.77999999999997</v>
       </c>
       <c r="C9" s="2">
         <f>RTD("stockrow","",$A9,C$1)</f>
-        <v>308.99</v>
+        <v>315.95</v>
       </c>
       <c r="D9" s="2">
         <f>RTD("stockrow","",$A9,D$1)</f>
-        <v>314.74</v>
+        <v>317.61</v>
       </c>
       <c r="E9" s="2">
         <f>RTD("stockrow","",$A9,E$1)</f>
-        <v>305.20999999999998</v>
+        <v>310.19</v>
       </c>
       <c r="F9" s="2">
         <f>RTD("stockrow","",$A9,F$1)</f>
-        <v>314.58</v>
+        <v>313.77999999999997</v>
       </c>
       <c r="G9">
         <f>RTD("stockrow","",$A9,G$1)</f>
-        <v>1134403</v>
+        <v>1410637</v>
       </c>
       <c r="H9" s="2">
         <f>RTD("stockrow","",$A9,H$1)</f>
-        <v>3.27</v>
+        <v>-1.3</v>
       </c>
       <c r="I9" s="1">
         <f>RTD("stockrow","",$A9,I$1)</f>
-        <v>1.0500000000000001E-2</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
       <c r="J9" t="str">
         <f>RTD("stockrow","",$A9,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4852,244 +4909,244 @@
       </c>
       <c r="B10" s="2">
         <f>RTD("stockrow","",$A10,B$1)</f>
-        <v>248.01</v>
+        <v>249.19</v>
       </c>
       <c r="C10" s="2">
         <f>RTD("stockrow","",$A10,C$1)</f>
-        <v>246.57</v>
+        <v>251.48</v>
       </c>
       <c r="D10" s="2">
         <f>RTD("stockrow","",$A10,D$1)</f>
-        <v>249.72</v>
+        <v>252.49</v>
       </c>
       <c r="E10" s="2">
         <f>RTD("stockrow","",$A10,E$1)</f>
-        <v>241.23</v>
+        <v>246.54</v>
       </c>
       <c r="F10" s="2">
         <f>RTD("stockrow","",$A10,F$1)</f>
-        <v>248.01</v>
+        <v>249.19</v>
       </c>
       <c r="G10">
         <f>RTD("stockrow","",$A10,G$1)</f>
-        <v>16581723</v>
+        <v>10917114</v>
       </c>
       <c r="H10" s="2">
         <f>RTD("stockrow","",$A10,H$1)</f>
-        <v>-3.66</v>
+        <v>0.61</v>
       </c>
       <c r="I10" s="1">
         <f>RTD("stockrow","",$A10,I$1)</f>
-        <v>-1.4500000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J10" t="str">
         <f>RTD("stockrow","",$A10,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2">
         <f>RTD("stockrow","",$A11,B$1)</f>
-        <v>57.77</v>
+        <v>53.436199999999999</v>
       </c>
       <c r="C11" s="2">
         <f>RTD("stockrow","",$A11,C$1)</f>
-        <v>57.83</v>
+        <v>51.95</v>
       </c>
       <c r="D11" s="2">
         <f>RTD("stockrow","",$A11,D$1)</f>
-        <v>58.058900000000001</v>
+        <v>53.44</v>
       </c>
       <c r="E11" s="2">
         <f>RTD("stockrow","",$A11,E$1)</f>
-        <v>57.284999999999997</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2">
         <f>RTD("stockrow","",$A11,F$1)</f>
-        <v>57.77</v>
+        <v>53.436199999999999</v>
       </c>
       <c r="G11">
         <f>RTD("stockrow","",$A11,G$1)</f>
-        <v>6238928</v>
+        <v>458030</v>
       </c>
       <c r="H11" s="2">
         <f>RTD("stockrow","",$A11,H$1)</f>
-        <v>0.02</v>
+        <v>1.7862</v>
       </c>
       <c r="I11" s="1">
         <f>RTD("stockrow","",$A11,I$1)</f>
-        <v>2.9999999999999997E-4</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="J11" t="str">
         <f>RTD("stockrow","",$A11,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <f>RTD("stockrow","",$A12,B$1)</f>
-        <v>36.85</v>
+        <v>59.27</v>
       </c>
       <c r="C12" s="2">
         <f>RTD("stockrow","",$A12,C$1)</f>
-        <v>36.5</v>
+        <v>58.65</v>
       </c>
       <c r="D12" s="2">
         <f>RTD("stockrow","",$A12,D$1)</f>
-        <v>36.85</v>
+        <v>59.61</v>
       </c>
       <c r="E12" s="2">
         <f>RTD("stockrow","",$A12,E$1)</f>
-        <v>36.409999999999997</v>
+        <v>58.32</v>
       </c>
       <c r="F12" s="2">
         <f>RTD("stockrow","",$A12,F$1)</f>
-        <v>36.85</v>
+        <v>59.27</v>
       </c>
       <c r="G12">
         <f>RTD("stockrow","",$A12,G$1)</f>
-        <v>1597939</v>
+        <v>7360632</v>
       </c>
       <c r="H12" s="2">
         <f>RTD("stockrow","",$A12,H$1)</f>
-        <v>0.35</v>
+        <v>1.38</v>
       </c>
       <c r="I12" s="1">
         <f>RTD("stockrow","",$A12,I$1)</f>
-        <v>9.5999999999999992E-3</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="J12" t="str">
         <f>RTD("stockrow","",$A12,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <f>RTD("stockrow","",$A13,B$1)</f>
-        <v>52.975000000000001</v>
+        <v>36.31</v>
       </c>
       <c r="C13" s="2">
         <f>RTD("stockrow","",$A13,C$1)</f>
-        <v>52.07</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="D13" s="2">
         <f>RTD("stockrow","",$A13,D$1)</f>
-        <v>52.98</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="E13" s="2">
         <f>RTD("stockrow","",$A13,E$1)</f>
-        <v>51.96</v>
+        <v>36.204999999999998</v>
       </c>
       <c r="F13" s="2">
         <f>RTD("stockrow","",$A13,F$1)</f>
-        <v>52.975000000000001</v>
+        <v>36.31</v>
       </c>
       <c r="G13">
         <f>RTD("stockrow","",$A13,G$1)</f>
-        <v>1443702</v>
+        <v>2305351</v>
       </c>
       <c r="H13" s="2">
         <f>RTD("stockrow","",$A13,H$1)</f>
-        <v>0.52500000000000002</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="I13" s="1">
         <f>RTD("stockrow","",$A13,I$1)</f>
-        <v>0.01</v>
+        <v>-1.55E-2</v>
       </c>
       <c r="J13" t="str">
         <f>RTD("stockrow","",$A13,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
         <f>RTD("stockrow","",$A14,B$1)</f>
-        <v>41.09</v>
+        <v>54.18</v>
       </c>
       <c r="C14" s="2">
         <f>RTD("stockrow","",$A14,C$1)</f>
-        <v>42.37</v>
+        <v>54.38</v>
       </c>
       <c r="D14" s="2">
         <f>RTD("stockrow","",$A14,D$1)</f>
-        <v>42.49</v>
+        <v>54.98</v>
       </c>
       <c r="E14" s="2">
         <f>RTD("stockrow","",$A14,E$1)</f>
-        <v>40.01</v>
+        <v>53.81</v>
       </c>
       <c r="F14" s="2">
         <f>RTD("stockrow","",$A14,F$1)</f>
-        <v>41.09</v>
+        <v>54.18</v>
       </c>
       <c r="G14">
         <f>RTD("stockrow","",$A14,G$1)</f>
-        <v>1567320</v>
+        <v>1962523</v>
       </c>
       <c r="H14" s="2">
         <f>RTD("stockrow","",$A14,H$1)</f>
-        <v>-1.54</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="I14" s="1">
         <f>RTD("stockrow","",$A14,I$1)</f>
-        <v>-3.61E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="J14" t="str">
         <f>RTD("stockrow","",$A14,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <f>RTD("stockrow","",$A15,B$1)</f>
-        <v>15.02</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="C15" s="2">
         <f>RTD("stockrow","",$A15,C$1)</f>
-        <v>14.97</v>
+        <v>41.41</v>
       </c>
       <c r="D15" s="2">
         <f>RTD("stockrow","",$A15,D$1)</f>
-        <v>15.18</v>
+        <v>41.5</v>
       </c>
       <c r="E15" s="2">
         <f>RTD("stockrow","",$A15,E$1)</f>
-        <v>14.595000000000001</v>
+        <v>39.729999999999997</v>
       </c>
       <c r="F15" s="2">
         <f>RTD("stockrow","",$A15,F$1)</f>
-        <v>15.02</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="G15">
         <f>RTD("stockrow","",$A15,G$1)</f>
-        <v>24740566</v>
+        <v>1485065</v>
       </c>
       <c r="H15" s="2">
         <f>RTD("stockrow","",$A15,H$1)</f>
-        <v>-0.26</v>
+        <v>-0.62</v>
       </c>
       <c r="I15" s="1">
         <f>RTD("stockrow","",$A15,I$1)</f>
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="J15" t="str">
         <f>RTD("stockrow","",$A15,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5098,39 +5155,39 @@
       </c>
       <c r="B16" s="2">
         <f>RTD("stockrow","",$A16,B$1)</f>
-        <v>15.02</v>
+        <v>17.48</v>
       </c>
       <c r="C16" s="2">
         <f>RTD("stockrow","",$A16,C$1)</f>
-        <v>14.97</v>
+        <v>16.13</v>
       </c>
       <c r="D16" s="2">
         <f>RTD("stockrow","",$A16,D$1)</f>
-        <v>15.18</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="E16" s="2">
         <f>RTD("stockrow","",$A16,E$1)</f>
-        <v>14.595000000000001</v>
+        <v>15.93</v>
       </c>
       <c r="F16" s="2">
         <f>RTD("stockrow","",$A16,F$1)</f>
-        <v>15.02</v>
+        <v>17.48</v>
       </c>
       <c r="G16">
         <f>RTD("stockrow","",$A16,G$1)</f>
-        <v>24740566</v>
+        <v>69552576</v>
       </c>
       <c r="H16" s="2">
         <f>RTD("stockrow","",$A16,H$1)</f>
-        <v>-0.26</v>
+        <v>2.44</v>
       </c>
       <c r="I16" s="1">
         <f>RTD("stockrow","",$A16,I$1)</f>
-        <v>-1.7000000000000001E-2</v>
+        <v>0.16220000000000001</v>
       </c>
       <c r="J16" t="str">
         <f>RTD("stockrow","",$A16,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5139,39 +5196,39 @@
       </c>
       <c r="B17" s="2">
         <f>RTD("stockrow","",$A17,B$1)</f>
-        <v>35.384999999999998</v>
+        <v>35.03</v>
       </c>
       <c r="C17" s="2">
         <f>RTD("stockrow","",$A17,C$1)</f>
-        <v>35.119999999999997</v>
+        <v>35.33</v>
       </c>
       <c r="D17" s="2">
         <f>RTD("stockrow","",$A17,D$1)</f>
-        <v>35.53</v>
+        <v>35.36</v>
       </c>
       <c r="E17" s="2">
         <f>RTD("stockrow","",$A17,E$1)</f>
-        <v>35.049999999999997</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2">
         <f>RTD("stockrow","",$A17,F$1)</f>
-        <v>35.384999999999998</v>
+        <v>35.03</v>
       </c>
       <c r="G17">
         <f>RTD("stockrow","",$A17,G$1)</f>
-        <v>839766</v>
+        <v>946736</v>
       </c>
       <c r="H17" s="2">
         <f>RTD("stockrow","",$A17,H$1)</f>
-        <v>-0.105</v>
+        <v>-0.38</v>
       </c>
       <c r="I17" s="1">
         <f>RTD("stockrow","",$A17,I$1)</f>
-        <v>-3.0000000000000001E-3</v>
+        <v>-1.0699999999999999E-2</v>
       </c>
       <c r="J17" t="str">
         <f>RTD("stockrow","",$A17,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5180,39 +5237,39 @@
       </c>
       <c r="B18" s="2">
         <f>RTD("stockrow","",$A18,B$1)</f>
-        <v>46.29</v>
+        <v>46.4</v>
       </c>
       <c r="C18" s="2">
         <f>RTD("stockrow","",$A18,C$1)</f>
-        <v>45.49</v>
+        <v>46.5</v>
       </c>
       <c r="D18" s="2">
         <f>RTD("stockrow","",$A18,D$1)</f>
-        <v>46.399900000000002</v>
+        <v>46.83</v>
       </c>
       <c r="E18" s="2">
         <f>RTD("stockrow","",$A18,E$1)</f>
-        <v>45.410299999999999</v>
+        <v>45.984999999999999</v>
       </c>
       <c r="F18" s="2">
         <f>RTD("stockrow","",$A18,F$1)</f>
-        <v>46.29</v>
+        <v>46.4</v>
       </c>
       <c r="G18">
         <f>RTD("stockrow","",$A18,G$1)</f>
-        <v>13267803</v>
+        <v>14741813</v>
       </c>
       <c r="H18" s="2">
         <f>RTD("stockrow","",$A18,H$1)</f>
-        <v>0.36</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I18" s="1">
         <f>RTD("stockrow","",$A18,I$1)</f>
-        <v>7.7999999999999996E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J18" t="str">
         <f>RTD("stockrow","",$A18,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5221,39 +5278,39 @@
       </c>
       <c r="B19" s="2">
         <f>RTD("stockrow","",$A19,B$1)</f>
-        <v>116.22</v>
+        <v>120.52</v>
       </c>
       <c r="C19" s="2">
         <f>RTD("stockrow","",$A19,C$1)</f>
-        <v>114.56</v>
+        <v>119.52</v>
       </c>
       <c r="D19" s="2">
         <f>RTD("stockrow","",$A19,D$1)</f>
-        <v>116.27</v>
+        <v>120.94</v>
       </c>
       <c r="E19" s="2">
         <f>RTD("stockrow","",$A19,E$1)</f>
-        <v>113.83</v>
+        <v>118.48</v>
       </c>
       <c r="F19" s="2">
         <f>RTD("stockrow","",$A19,F$1)</f>
-        <v>116.22</v>
+        <v>120.52</v>
       </c>
       <c r="G19">
         <f>RTD("stockrow","",$A19,G$1)</f>
-        <v>568961</v>
+        <v>492945</v>
       </c>
       <c r="H19" s="2">
         <f>RTD("stockrow","",$A19,H$1)</f>
-        <v>1.8</v>
+        <v>3.57</v>
       </c>
       <c r="I19" s="1">
         <f>RTD("stockrow","",$A19,I$1)</f>
-        <v>1.5699999999999999E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="J19" t="str">
         <f>RTD("stockrow","",$A19,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5262,39 +5319,39 @@
       </c>
       <c r="B20" s="2">
         <f>RTD("stockrow","",$A20,B$1)</f>
-        <v>56.23</v>
+        <v>59.67</v>
       </c>
       <c r="C20" s="2">
         <f>RTD("stockrow","",$A20,C$1)</f>
-        <v>56.02</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2">
         <f>RTD("stockrow","",$A20,D$1)</f>
-        <v>56.29</v>
+        <v>60.39</v>
       </c>
       <c r="E20" s="2">
         <f>RTD("stockrow","",$A20,E$1)</f>
-        <v>55.18</v>
+        <v>58.05</v>
       </c>
       <c r="F20" s="2">
         <f>RTD("stockrow","",$A20,F$1)</f>
-        <v>56.23</v>
+        <v>59.67</v>
       </c>
       <c r="G20">
         <f>RTD("stockrow","",$A20,G$1)</f>
-        <v>1832886</v>
+        <v>4505225</v>
       </c>
       <c r="H20" s="2">
         <f>RTD("stockrow","",$A20,H$1)</f>
-        <v>-0.23</v>
+        <v>3.2</v>
       </c>
       <c r="I20" s="1">
         <f>RTD("stockrow","",$A20,I$1)</f>
-        <v>-4.1000000000000003E-3</v>
+        <v>5.67E-2</v>
       </c>
       <c r="J20" t="str">
         <f>RTD("stockrow","",$A20,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5303,39 +5360,39 @@
       </c>
       <c r="B21" s="2">
         <f>RTD("stockrow","",$A21,B$1)</f>
-        <v>118.38</v>
+        <v>120.895</v>
       </c>
       <c r="C21" s="2">
         <f>RTD("stockrow","",$A21,C$1)</f>
-        <v>119.94</v>
+        <v>121.63</v>
       </c>
       <c r="D21" s="2">
         <f>RTD("stockrow","",$A21,D$1)</f>
-        <v>119.08</v>
+        <v>122.09</v>
       </c>
       <c r="E21" s="2">
         <f>RTD("stockrow","",$A21,E$1)</f>
-        <v>114.54</v>
+        <v>119.7</v>
       </c>
       <c r="F21" s="2">
         <f>RTD("stockrow","",$A21,F$1)</f>
-        <v>118.38</v>
+        <v>120.895</v>
       </c>
       <c r="G21">
         <f>RTD("stockrow","",$A21,G$1)</f>
-        <v>9815471</v>
+        <v>14100833</v>
       </c>
       <c r="H21" s="2">
         <f>RTD("stockrow","",$A21,H$1)</f>
-        <v>2.14</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="I21" s="1">
         <f>RTD("stockrow","",$A21,I$1)</f>
-        <v>1.84E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="J21" t="str">
         <f>RTD("stockrow","",$A21,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5344,39 +5401,39 @@
       </c>
       <c r="B22" s="2">
         <f>RTD("stockrow","",$A22,B$1)</f>
-        <v>82.055000000000007</v>
+        <v>80.430000000000007</v>
       </c>
       <c r="C22" s="2">
         <f>RTD("stockrow","",$A22,C$1)</f>
-        <v>81.42</v>
+        <v>82.48</v>
       </c>
       <c r="D22" s="2">
         <f>RTD("stockrow","",$A22,D$1)</f>
-        <v>82.47</v>
+        <v>82.63</v>
       </c>
       <c r="E22" s="2">
         <f>RTD("stockrow","",$A22,E$1)</f>
-        <v>81.39</v>
+        <v>80.33</v>
       </c>
       <c r="F22" s="2">
         <f>RTD("stockrow","",$A22,F$1)</f>
-        <v>82.055000000000007</v>
+        <v>80.430000000000007</v>
       </c>
       <c r="G22">
         <f>RTD("stockrow","",$A22,G$1)</f>
-        <v>2150800</v>
+        <v>3839734</v>
       </c>
       <c r="H22" s="2">
         <f>RTD("stockrow","",$A22,H$1)</f>
-        <v>0.66500000000000004</v>
+        <v>-1.27</v>
       </c>
       <c r="I22" s="1">
         <f>RTD("stockrow","",$A22,I$1)</f>
-        <v>8.2000000000000007E-3</v>
+        <v>-1.55E-2</v>
       </c>
       <c r="J22" t="str">
         <f>RTD("stockrow","",$A22,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5385,39 +5442,39 @@
       </c>
       <c r="B23" s="2">
         <f>RTD("stockrow","",$A23,B$1)</f>
-        <v>56.99</v>
+        <v>55.27</v>
       </c>
       <c r="C23" s="2">
         <f>RTD("stockrow","",$A23,C$1)</f>
-        <v>56</v>
+        <v>57.33</v>
       </c>
       <c r="D23" s="2">
         <f>RTD("stockrow","",$A23,D$1)</f>
-        <v>57.32</v>
+        <v>57.59</v>
       </c>
       <c r="E23" s="2">
         <f>RTD("stockrow","",$A23,E$1)</f>
-        <v>56.14</v>
+        <v>55.06</v>
       </c>
       <c r="F23" s="2">
         <f>RTD("stockrow","",$A23,F$1)</f>
-        <v>56.99</v>
+        <v>55.27</v>
       </c>
       <c r="G23">
         <f>RTD("stockrow","",$A23,G$1)</f>
-        <v>1875636</v>
+        <v>2180540</v>
       </c>
       <c r="H23" s="2">
         <f>RTD("stockrow","",$A23,H$1)</f>
-        <v>1.01</v>
+        <v>-1.4</v>
       </c>
       <c r="I23" s="1">
         <f>RTD("stockrow","",$A23,I$1)</f>
-        <v>1.7999999999999999E-2</v>
+        <v>-2.47E-2</v>
       </c>
       <c r="J23" t="str">
         <f>RTD("stockrow","",$A23,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5426,39 +5483,39 @@
       </c>
       <c r="B24" s="2">
         <f>RTD("stockrow","",$A24,B$1)</f>
-        <v>17.12</v>
+        <v>17.8218</v>
       </c>
       <c r="C24" s="2">
         <f>RTD("stockrow","",$A24,C$1)</f>
-        <v>17.010000000000002</v>
+        <v>17.38</v>
       </c>
       <c r="D24" s="2">
         <f>RTD("stockrow","",$A24,D$1)</f>
-        <v>17.36</v>
+        <v>17.96</v>
       </c>
       <c r="E24" s="2">
         <f>RTD("stockrow","",$A24,E$1)</f>
-        <v>16.952000000000002</v>
+        <v>17.2498</v>
       </c>
       <c r="F24" s="2">
         <f>RTD("stockrow","",$A24,F$1)</f>
-        <v>17.12</v>
+        <v>17.8218</v>
       </c>
       <c r="G24">
         <f>RTD("stockrow","",$A24,G$1)</f>
-        <v>4413476</v>
+        <v>6568453</v>
       </c>
       <c r="H24" s="2">
         <f>RTD("stockrow","",$A24,H$1)</f>
-        <v>-0.01</v>
+        <v>0.73180000000000001</v>
       </c>
       <c r="I24" s="1">
         <f>RTD("stockrow","",$A24,I$1)</f>
-        <v>-5.9999999999999995E-4</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="J24" t="str">
         <f>RTD("stockrow","",$A24,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5467,39 +5524,39 @@
       </c>
       <c r="B25" s="2">
         <f>RTD("stockrow","",$A25,B$1)</f>
-        <v>238.36</v>
+        <v>240.28</v>
       </c>
       <c r="C25" s="2">
         <f>RTD("stockrow","",$A25,C$1)</f>
-        <v>236.76</v>
+        <v>241.55</v>
       </c>
       <c r="D25" s="2">
         <f>RTD("stockrow","",$A25,D$1)</f>
-        <v>239.8374</v>
+        <v>244.82</v>
       </c>
       <c r="E25" s="2">
         <f>RTD("stockrow","",$A25,E$1)</f>
-        <v>232.03</v>
+        <v>238.05</v>
       </c>
       <c r="F25" s="2">
         <f>RTD("stockrow","",$A25,F$1)</f>
-        <v>238.36</v>
+        <v>240.28</v>
       </c>
       <c r="G25">
         <f>RTD("stockrow","",$A25,G$1)</f>
-        <v>19582048</v>
+        <v>18305592</v>
       </c>
       <c r="H25" s="2">
         <f>RTD("stockrow","",$A25,H$1)</f>
-        <v>-0.64</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I25" s="1">
         <f>RTD("stockrow","",$A25,I$1)</f>
-        <v>-2.7000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J25" t="str">
         <f>RTD("stockrow","",$A25,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5508,39 +5565,39 @@
       </c>
       <c r="B26" s="2">
         <f>RTD("stockrow","",$A26,B$1)</f>
-        <v>142.82749999999999</v>
+        <v>145.75</v>
       </c>
       <c r="C26" s="2">
         <f>RTD("stockrow","",$A26,C$1)</f>
-        <v>142.25</v>
+        <v>146.85</v>
       </c>
       <c r="D26" s="2">
         <f>RTD("stockrow","",$A26,D$1)</f>
-        <v>143.93</v>
+        <v>146.83000000000001</v>
       </c>
       <c r="E26" s="2">
         <f>RTD("stockrow","",$A26,E$1)</f>
-        <v>141.12</v>
+        <v>145.22</v>
       </c>
       <c r="F26" s="2">
         <f>RTD("stockrow","",$A26,F$1)</f>
-        <v>142.82749999999999</v>
+        <v>145.75</v>
       </c>
       <c r="G26">
         <f>RTD("stockrow","",$A26,G$1)</f>
-        <v>631200</v>
+        <v>1667836</v>
       </c>
       <c r="H26" s="2">
         <f>RTD("stockrow","",$A26,H$1)</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.39</v>
       </c>
       <c r="I26" s="1">
         <f>RTD("stockrow","",$A26,I$1)</f>
-        <v>1E-4</v>
+        <v>1.67E-2</v>
       </c>
       <c r="J26" t="str">
         <f>RTD("stockrow","",$A26,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5549,39 +5606,39 @@
       </c>
       <c r="B27" s="2">
         <f>RTD("stockrow","",$A27,B$1)</f>
-        <v>170.04499999999999</v>
+        <v>170.35</v>
       </c>
       <c r="C27" s="2">
         <f>RTD("stockrow","",$A27,C$1)</f>
-        <v>168.97</v>
+        <v>169.62</v>
       </c>
       <c r="D27" s="2">
         <f>RTD("stockrow","",$A27,D$1)</f>
-        <v>170.2</v>
+        <v>170.42</v>
       </c>
       <c r="E27" s="2">
         <f>RTD("stockrow","",$A27,E$1)</f>
-        <v>168.8141</v>
+        <v>169.39</v>
       </c>
       <c r="F27" s="2">
         <f>RTD("stockrow","",$A27,F$1)</f>
-        <v>170.04499999999999</v>
+        <v>170.35</v>
       </c>
       <c r="G27">
         <f>RTD("stockrow","",$A27,G$1)</f>
-        <v>8116835</v>
+        <v>7420950</v>
       </c>
       <c r="H27" s="2">
         <f>RTD("stockrow","",$A27,H$1)</f>
-        <v>0.65500000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="I27" s="1">
         <f>RTD("stockrow","",$A27,I$1)</f>
-        <v>3.8999999999999998E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="J27" t="str">
         <f>RTD("stockrow","",$A27,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5590,39 +5647,39 @@
       </c>
       <c r="B28" s="2">
         <f>RTD("stockrow","",$A28,B$1)</f>
-        <v>1507.4</v>
+        <v>1513.64</v>
       </c>
       <c r="C28" s="2">
         <f>RTD("stockrow","",$A28,C$1)</f>
-        <v>1490.3100999999999</v>
+        <v>1523.13</v>
       </c>
       <c r="D28" s="2">
         <f>RTD("stockrow","",$A28,D$1)</f>
-        <v>1515</v>
+        <v>1535.33</v>
       </c>
       <c r="E28" s="2">
         <f>RTD("stockrow","",$A28,E$1)</f>
-        <v>1484.0916</v>
+        <v>1498</v>
       </c>
       <c r="F28" s="2">
         <f>RTD("stockrow","",$A28,F$1)</f>
-        <v>1507.4</v>
+        <v>1513.64</v>
       </c>
       <c r="G28">
         <f>RTD("stockrow","",$A28,G$1)</f>
-        <v>1153616</v>
+        <v>1708174</v>
       </c>
       <c r="H28" s="2">
         <f>RTD("stockrow","",$A28,H$1)</f>
-        <v>-3.94</v>
+        <v>-6.94</v>
       </c>
       <c r="I28" s="1">
         <f>RTD("stockrow","",$A28,I$1)</f>
-        <v>-2.5999999999999999E-3</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="J28" t="str">
         <f>RTD("stockrow","",$A28,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5631,39 +5688,39 @@
       </c>
       <c r="B29" s="2">
         <f>RTD("stockrow","",$A29,B$1)</f>
-        <v>58.8</v>
+        <v>59.03</v>
       </c>
       <c r="C29" s="2">
         <f>RTD("stockrow","",$A29,C$1)</f>
-        <v>57.8735</v>
+        <v>59.03</v>
       </c>
       <c r="D29" s="2">
         <f>RTD("stockrow","",$A29,D$1)</f>
-        <v>58.8202</v>
+        <v>59.34</v>
       </c>
       <c r="E29" s="2">
         <f>RTD("stockrow","",$A29,E$1)</f>
-        <v>57.344999999999999</v>
+        <v>58.42</v>
       </c>
       <c r="F29" s="2">
         <f>RTD("stockrow","",$A29,F$1)</f>
-        <v>58.8</v>
+        <v>59.03</v>
       </c>
       <c r="G29">
         <f>RTD("stockrow","",$A29,G$1)</f>
-        <v>14753798</v>
+        <v>18770490</v>
       </c>
       <c r="H29" s="2">
         <f>RTD("stockrow","",$A29,H$1)</f>
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="I29" s="1">
         <f>RTD("stockrow","",$A29,I$1)</f>
-        <v>3.8E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="J29" t="str">
         <f>RTD("stockrow","",$A29,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5672,39 +5729,39 @@
       </c>
       <c r="B30" s="2">
         <f>RTD("stockrow","",$A30,B$1)</f>
-        <v>23.05</v>
+        <v>23.02</v>
       </c>
       <c r="C30" s="2">
         <f>RTD("stockrow","",$A30,C$1)</f>
-        <v>22.89</v>
+        <v>23.16</v>
       </c>
       <c r="D30" s="2">
         <f>RTD("stockrow","",$A30,D$1)</f>
-        <v>23.05</v>
+        <v>23.3</v>
       </c>
       <c r="E30" s="2">
         <f>RTD("stockrow","",$A30,E$1)</f>
-        <v>22.035</v>
+        <v>22.71</v>
       </c>
       <c r="F30" s="2">
         <f>RTD("stockrow","",$A30,F$1)</f>
-        <v>23.05</v>
+        <v>23.02</v>
       </c>
       <c r="G30">
         <f>RTD("stockrow","",$A30,G$1)</f>
-        <v>4823604</v>
+        <v>5407575</v>
       </c>
       <c r="H30" s="2">
         <f>RTD("stockrow","",$A30,H$1)</f>
-        <v>0.19</v>
+        <v>-0.23</v>
       </c>
       <c r="I30" s="1">
         <f>RTD("stockrow","",$A30,I$1)</f>
-        <v>8.3000000000000001E-3</v>
+        <v>-9.9000000000000008E-3</v>
       </c>
       <c r="J30" t="str">
         <f>RTD("stockrow","",$A30,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5713,39 +5770,39 @@
       </c>
       <c r="B31" s="2">
         <f>RTD("stockrow","",$A31,B$1)</f>
-        <v>62.07</v>
+        <v>62.55</v>
       </c>
       <c r="C31" s="2">
         <f>RTD("stockrow","",$A31,C$1)</f>
-        <v>60.9</v>
+        <v>62.38</v>
       </c>
       <c r="D31" s="2">
         <f>RTD("stockrow","",$A31,D$1)</f>
-        <v>62.45</v>
+        <v>63.07</v>
       </c>
       <c r="E31" s="2">
         <f>RTD("stockrow","",$A31,E$1)</f>
-        <v>59.96</v>
+        <v>61.6</v>
       </c>
       <c r="F31" s="2">
         <f>RTD("stockrow","",$A31,F$1)</f>
-        <v>62.07</v>
+        <v>62.55</v>
       </c>
       <c r="G31">
         <f>RTD("stockrow","",$A31,G$1)</f>
-        <v>11589564</v>
+        <v>7383251</v>
       </c>
       <c r="H31" s="2">
         <f>RTD("stockrow","",$A31,H$1)</f>
-        <v>-0.23</v>
+        <v>0.42</v>
       </c>
       <c r="I31" s="1">
         <f>RTD("stockrow","",$A31,I$1)</f>
-        <v>-3.7000000000000002E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="J31" t="str">
         <f>RTD("stockrow","",$A31,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5754,39 +5811,39 @@
       </c>
       <c r="B32" s="2">
         <f>RTD("stockrow","",$A32,B$1)</f>
-        <v>147.89500000000001</v>
+        <v>148.315</v>
       </c>
       <c r="C32" s="2">
         <f>RTD("stockrow","",$A32,C$1)</f>
-        <v>145.32</v>
+        <v>149.72999999999999</v>
       </c>
       <c r="D32" s="2">
         <f>RTD("stockrow","",$A32,D$1)</f>
-        <v>147.9</v>
+        <v>150.20500000000001</v>
       </c>
       <c r="E32" s="2">
         <f>RTD("stockrow","",$A32,E$1)</f>
-        <v>145.26</v>
+        <v>148.22999999999999</v>
       </c>
       <c r="F32" s="2">
         <f>RTD("stockrow","",$A32,F$1)</f>
-        <v>147.89500000000001</v>
+        <v>148.315</v>
       </c>
       <c r="G32">
         <f>RTD("stockrow","",$A32,G$1)</f>
-        <v>4302897</v>
+        <v>6357063</v>
       </c>
       <c r="H32" s="2">
         <f>RTD("stockrow","",$A32,H$1)</f>
-        <v>2.6850000000000001</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="I32" s="1">
         <f>RTD("stockrow","",$A32,I$1)</f>
-        <v>1.8499999999999999E-2</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="J32" t="str">
         <f>RTD("stockrow","",$A32,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5795,39 +5852,39 @@
       </c>
       <c r="B33" s="2">
         <f>RTD("stockrow","",$A33,B$1)</f>
-        <v>66.75</v>
+        <v>68.88</v>
       </c>
       <c r="C33" s="2">
         <f>RTD("stockrow","",$A33,C$1)</f>
-        <v>65.34</v>
+        <v>69.05</v>
       </c>
       <c r="D33" s="2">
         <f>RTD("stockrow","",$A33,D$1)</f>
-        <v>67.02</v>
+        <v>69.375</v>
       </c>
       <c r="E33" s="2">
         <f>RTD("stockrow","",$A33,E$1)</f>
-        <v>65</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="F33" s="2">
         <f>RTD("stockrow","",$A33,F$1)</f>
-        <v>66.75</v>
+        <v>68.88</v>
       </c>
       <c r="G33">
         <f>RTD("stockrow","",$A33,G$1)</f>
-        <v>1058648</v>
+        <v>1392506</v>
       </c>
       <c r="H33" s="2">
         <f>RTD("stockrow","",$A33,H$1)</f>
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
       <c r="I33" s="1">
         <f>RTD("stockrow","",$A33,I$1)</f>
-        <v>2.1600000000000001E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="J33" t="str">
         <f>RTD("stockrow","",$A33,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5836,39 +5893,39 @@
       </c>
       <c r="B34" s="2">
         <f>RTD("stockrow","",$A34,B$1)</f>
-        <v>297.42</v>
+        <v>305.72000000000003</v>
       </c>
       <c r="C34" s="2">
         <f>RTD("stockrow","",$A34,C$1)</f>
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D34" s="2">
         <f>RTD("stockrow","",$A34,D$1)</f>
-        <v>297.52</v>
+        <v>306.77499999999998</v>
       </c>
       <c r="E34" s="2">
         <f>RTD("stockrow","",$A34,E$1)</f>
-        <v>288.75</v>
+        <v>301.39</v>
       </c>
       <c r="F34" s="2">
         <f>RTD("stockrow","",$A34,F$1)</f>
-        <v>297.42</v>
+        <v>305.72000000000003</v>
       </c>
       <c r="G34">
         <f>RTD("stockrow","",$A34,G$1)</f>
-        <v>3692802</v>
+        <v>4620559</v>
       </c>
       <c r="H34" s="2">
         <f>RTD("stockrow","",$A34,H$1)</f>
-        <v>7.24</v>
+        <v>6.77</v>
       </c>
       <c r="I34" s="1">
         <f>RTD("stockrow","",$A34,I$1)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="J34" t="str">
         <f>RTD("stockrow","",$A34,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5877,39 +5934,39 @@
       </c>
       <c r="B35" s="2">
         <f>RTD("stockrow","",$A35,B$1)</f>
-        <v>13.75</v>
+        <v>14.74</v>
       </c>
       <c r="C35" s="2">
         <f>RTD("stockrow","",$A35,C$1)</f>
-        <v>13.81</v>
+        <v>14.21</v>
       </c>
       <c r="D35" s="2">
         <f>RTD("stockrow","",$A35,D$1)</f>
-        <v>14.47</v>
+        <v>14.98</v>
       </c>
       <c r="E35" s="2">
         <f>RTD("stockrow","",$A35,E$1)</f>
-        <v>13.59</v>
+        <v>14.11</v>
       </c>
       <c r="F35" s="2">
         <f>RTD("stockrow","",$A35,F$1)</f>
-        <v>13.75</v>
+        <v>14.74</v>
       </c>
       <c r="G35">
         <f>RTD("stockrow","",$A35,G$1)</f>
-        <v>350940</v>
+        <v>880178</v>
       </c>
       <c r="H35" s="2">
         <f>RTD("stockrow","",$A35,H$1)</f>
-        <v>-0.19</v>
+        <v>0.96</v>
       </c>
       <c r="I35" s="1">
         <f>RTD("stockrow","",$A35,I$1)</f>
-        <v>-1.3599999999999999E-2</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="J35" t="str">
         <f>RTD("stockrow","",$A35,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5918,39 +5975,39 @@
       </c>
       <c r="B36" s="2">
         <f>RTD("stockrow","",$A36,B$1)</f>
-        <v>94.21</v>
+        <v>97.19</v>
       </c>
       <c r="C36" s="2">
         <f>RTD("stockrow","",$A36,C$1)</f>
-        <v>92.74</v>
+        <v>95.61</v>
       </c>
       <c r="D36" s="2">
         <f>RTD("stockrow","",$A36,D$1)</f>
-        <v>94.33</v>
+        <v>98.22</v>
       </c>
       <c r="E36" s="2">
         <f>RTD("stockrow","",$A36,E$1)</f>
-        <v>91.98</v>
+        <v>95.61</v>
       </c>
       <c r="F36" s="2">
         <f>RTD("stockrow","",$A36,F$1)</f>
-        <v>94.21</v>
+        <v>97.19</v>
       </c>
       <c r="G36">
         <f>RTD("stockrow","",$A36,G$1)</f>
-        <v>4040946</v>
+        <v>4967628</v>
       </c>
       <c r="H36" s="2">
         <f>RTD("stockrow","",$A36,H$1)</f>
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="I36" s="1">
         <f>RTD("stockrow","",$A36,I$1)</f>
-        <v>1.55E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="J36" t="str">
         <f>RTD("stockrow","",$A36,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5959,39 +6016,39 @@
       </c>
       <c r="B37" s="2">
         <f>RTD("stockrow","",$A37,B$1)</f>
-        <v>158.74</v>
+        <v>159.35</v>
       </c>
       <c r="C37" s="2">
         <f>RTD("stockrow","",$A37,C$1)</f>
-        <v>154.80000000000001</v>
+        <v>159.97999999999999</v>
       </c>
       <c r="D37" s="2">
         <f>RTD("stockrow","",$A37,D$1)</f>
-        <v>158.80000000000001</v>
+        <v>161.375</v>
       </c>
       <c r="E37" s="2">
         <f>RTD("stockrow","",$A37,E$1)</f>
-        <v>153.9205</v>
+        <v>159.25</v>
       </c>
       <c r="F37" s="2">
         <f>RTD("stockrow","",$A37,F$1)</f>
-        <v>158.74</v>
+        <v>159.35</v>
       </c>
       <c r="G37">
         <f>RTD("stockrow","",$A37,G$1)</f>
-        <v>2059399</v>
+        <v>2550604</v>
       </c>
       <c r="H37" s="2">
         <f>RTD("stockrow","",$A37,H$1)</f>
-        <v>3.93</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="1">
         <f>RTD("stockrow","",$A37,I$1)</f>
-        <v>2.5399999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J37" t="str">
         <f>RTD("stockrow","",$A37,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -6004,15 +6061,15 @@
       </c>
       <c r="C38" s="2">
         <f>RTD("stockrow","",$A38,C$1)</f>
-        <v>40.21</v>
+        <v>41.34</v>
       </c>
       <c r="D38" s="2">
         <f>RTD("stockrow","",$A38,D$1)</f>
-        <v>41.04</v>
+        <v>41.744999999999997</v>
       </c>
       <c r="E38" s="2">
         <f>RTD("stockrow","",$A38,E$1)</f>
-        <v>39.880000000000003</v>
+        <v>40.96</v>
       </c>
       <c r="F38" s="2">
         <f>RTD("stockrow","",$A38,F$1)</f>
@@ -6020,19 +6077,19 @@
       </c>
       <c r="G38">
         <f>RTD("stockrow","",$A38,G$1)</f>
-        <v>5228706</v>
+        <v>5856390</v>
       </c>
       <c r="H38" s="2">
         <f>RTD("stockrow","",$A38,H$1)</f>
-        <v>0.79</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="I38" s="1">
         <f>RTD("stockrow","",$A38,I$1)</f>
-        <v>1.9699999999999999E-2</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
       <c r="J38" t="str">
         <f>RTD("stockrow","",$A38,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -6041,39 +6098,39 @@
       </c>
       <c r="B39" s="2">
         <f>RTD("stockrow","",$A39,B$1)</f>
-        <v>207.13</v>
+        <v>208.04</v>
       </c>
       <c r="C39" s="2">
         <f>RTD("stockrow","",$A39,C$1)</f>
-        <v>206.13</v>
+        <v>209.56</v>
       </c>
       <c r="D39" s="2">
         <f>RTD("stockrow","",$A39,D$1)</f>
-        <v>208.29990000000001</v>
+        <v>211.33</v>
       </c>
       <c r="E39" s="2">
         <f>RTD("stockrow","",$A39,E$1)</f>
-        <v>202.03</v>
+        <v>205.03</v>
       </c>
       <c r="F39" s="2">
         <f>RTD("stockrow","",$A39,F$1)</f>
-        <v>207.13</v>
+        <v>208.04</v>
       </c>
       <c r="G39">
         <f>RTD("stockrow","",$A39,G$1)</f>
-        <v>29984033</v>
+        <v>31092028</v>
       </c>
       <c r="H39" s="2">
         <f>RTD("stockrow","",$A39,H$1)</f>
-        <v>0.06</v>
+        <v>-0.31</v>
       </c>
       <c r="I39" s="1">
         <f>RTD("stockrow","",$A39,I$1)</f>
-        <v>2.9999999999999997E-4</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="J39" t="str">
         <f>RTD("stockrow","",$A39,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -6082,39 +6139,39 @@
       </c>
       <c r="B40" s="2">
         <f>RTD("stockrow","",$A40,B$1)</f>
-        <v>61.548999999999999</v>
+        <v>62.09</v>
       </c>
       <c r="C40" s="2">
         <f>RTD("stockrow","",$A40,C$1)</f>
-        <v>59.37</v>
+        <v>61.65</v>
       </c>
       <c r="D40" s="2">
         <f>RTD("stockrow","",$A40,D$1)</f>
-        <v>61.577800000000003</v>
+        <v>62.18</v>
       </c>
       <c r="E40" s="2">
         <f>RTD("stockrow","",$A40,E$1)</f>
-        <v>59.06</v>
+        <v>60.41</v>
       </c>
       <c r="F40" s="2">
         <f>RTD("stockrow","",$A40,F$1)</f>
-        <v>61.548999999999999</v>
+        <v>62.09</v>
       </c>
       <c r="G40">
         <f>RTD("stockrow","",$A40,G$1)</f>
-        <v>5434920</v>
+        <v>5193815</v>
       </c>
       <c r="H40" s="2">
         <f>RTD("stockrow","",$A40,H$1)</f>
-        <v>2.0089999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="I40" s="1">
         <f>RTD("stockrow","",$A40,I$1)</f>
-        <v>3.3700000000000001E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="J40" t="str">
         <f>RTD("stockrow","",$A40,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -6123,39 +6180,39 @@
       </c>
       <c r="B41" s="2">
         <f>RTD("stockrow","",$A41,B$1)</f>
-        <v>518.64</v>
+        <v>523.26</v>
       </c>
       <c r="C41" s="2">
         <f>RTD("stockrow","",$A41,C$1)</f>
-        <v>517.08000000000004</v>
+        <v>516.29999999999995</v>
       </c>
       <c r="D41" s="2">
         <f>RTD("stockrow","",$A41,D$1)</f>
-        <v>525</v>
+        <v>528.99</v>
       </c>
       <c r="E41" s="2">
         <f>RTD("stockrow","",$A41,E$1)</f>
-        <v>491</v>
+        <v>510.18</v>
       </c>
       <c r="F41" s="2">
         <f>RTD("stockrow","",$A41,F$1)</f>
-        <v>518.64</v>
+        <v>523.26</v>
       </c>
       <c r="G41">
         <f>RTD("stockrow","",$A41,G$1)</f>
-        <v>13600697</v>
+        <v>9929455</v>
       </c>
       <c r="H41" s="2">
         <f>RTD("stockrow","",$A41,H$1)</f>
-        <v>-6.86</v>
+        <v>-1.62</v>
       </c>
       <c r="I41" s="1">
         <f>RTD("stockrow","",$A41,I$1)</f>
-        <v>-1.3100000000000001E-2</v>
+        <v>-3.0999999999999999E-3</v>
       </c>
       <c r="J41" t="str">
         <f>RTD("stockrow","",$A41,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -6164,39 +6221,39 @@
       </c>
       <c r="B42" s="2">
         <f>RTD("stockrow","",$A42,B$1)</f>
-        <v>4.3099999999999996</v>
+        <v>4.33</v>
       </c>
       <c r="C42" s="2">
         <f>RTD("stockrow","",$A42,C$1)</f>
-        <v>4.24</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D42" s="2">
         <f>RTD("stockrow","",$A42,D$1)</f>
-        <v>4.33</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E42" s="2">
         <f>RTD("stockrow","",$A42,E$1)</f>
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
       <c r="F42" s="2">
         <f>RTD("stockrow","",$A42,F$1)</f>
-        <v>4.3099999999999996</v>
+        <v>4.33</v>
       </c>
       <c r="G42">
         <f>RTD("stockrow","",$A42,G$1)</f>
-        <v>36167635</v>
+        <v>29416908</v>
       </c>
       <c r="H42" s="2">
         <f>RTD("stockrow","",$A42,H$1)</f>
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="I42" s="1">
         <f>RTD("stockrow","",$A42,I$1)</f>
-        <v>3.1099999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J42" t="str">
         <f>RTD("stockrow","",$A42,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -6205,39 +6262,39 @@
       </c>
       <c r="B43" s="2">
         <f>RTD("stockrow","",$A43,B$1)</f>
-        <v>40.92</v>
+        <v>41.69</v>
       </c>
       <c r="C43" s="2">
         <f>RTD("stockrow","",$A43,C$1)</f>
-        <v>39.76</v>
+        <v>41.84</v>
       </c>
       <c r="D43" s="2">
         <f>RTD("stockrow","",$A43,D$1)</f>
-        <v>41.048000000000002</v>
+        <v>42.027999999999999</v>
       </c>
       <c r="E43" s="2">
         <f>RTD("stockrow","",$A43,E$1)</f>
-        <v>39.479999999999997</v>
+        <v>40.76</v>
       </c>
       <c r="F43" s="2">
         <f>RTD("stockrow","",$A43,F$1)</f>
-        <v>40.92</v>
+        <v>41.69</v>
       </c>
       <c r="G43">
         <f>RTD("stockrow","",$A43,G$1)</f>
-        <v>1059210</v>
+        <v>1292206</v>
       </c>
       <c r="H43" s="2">
         <f>RTD("stockrow","",$A43,H$1)</f>
-        <v>0.98</v>
+        <v>0.63</v>
       </c>
       <c r="I43" s="1">
         <f>RTD("stockrow","",$A43,I$1)</f>
-        <v>2.4500000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="J43" t="str">
         <f>RTD("stockrow","",$A43,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -6246,39 +6303,39 @@
       </c>
       <c r="B44" s="2">
         <f>RTD("stockrow","",$A44,B$1)</f>
-        <v>414</v>
+        <v>409.09</v>
       </c>
       <c r="C44" s="2">
         <f>RTD("stockrow","",$A44,C$1)</f>
-        <v>403</v>
+        <v>416.57</v>
       </c>
       <c r="D44" s="2">
         <f>RTD("stockrow","",$A44,D$1)</f>
-        <v>414.13</v>
+        <v>417.32</v>
       </c>
       <c r="E44" s="2">
         <f>RTD("stockrow","",$A44,E$1)</f>
-        <v>391.42</v>
+        <v>402.23</v>
       </c>
       <c r="F44" s="2">
         <f>RTD("stockrow","",$A44,F$1)</f>
-        <v>414</v>
+        <v>409.09</v>
       </c>
       <c r="G44">
         <f>RTD("stockrow","",$A44,G$1)</f>
-        <v>11878040</v>
+        <v>9646619</v>
       </c>
       <c r="H44" s="2">
         <f>RTD("stockrow","",$A44,H$1)</f>
-        <v>11.91</v>
+        <v>-5.99</v>
       </c>
       <c r="I44" s="1">
         <f>RTD("stockrow","",$A44,I$1)</f>
-        <v>2.9600000000000001E-2</v>
+        <v>-1.44E-2</v>
       </c>
       <c r="J44" t="str">
         <f>RTD("stockrow","",$A44,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -6287,39 +6344,39 @@
       </c>
       <c r="B45" s="2">
         <f>RTD("stockrow","",$A45,B$1)</f>
-        <v>135.44</v>
+        <v>133.69</v>
       </c>
       <c r="C45" s="2">
         <f>RTD("stockrow","",$A45,C$1)</f>
-        <v>134.59</v>
+        <v>135.35</v>
       </c>
       <c r="D45" s="2">
         <f>RTD("stockrow","",$A45,D$1)</f>
-        <v>136.95150000000001</v>
+        <v>136.19</v>
       </c>
       <c r="E45" s="2">
         <f>RTD("stockrow","",$A45,E$1)</f>
-        <v>134.25</v>
+        <v>133.25</v>
       </c>
       <c r="F45" s="2">
         <f>RTD("stockrow","",$A45,F$1)</f>
-        <v>135.44</v>
+        <v>133.69</v>
       </c>
       <c r="G45">
         <f>RTD("stockrow","",$A45,G$1)</f>
-        <v>4020696</v>
+        <v>4963675</v>
       </c>
       <c r="H45" s="2">
         <f>RTD("stockrow","",$A45,H$1)</f>
-        <v>0.53</v>
+        <v>-1.83</v>
       </c>
       <c r="I45" s="1">
         <f>RTD("stockrow","",$A45,I$1)</f>
-        <v>3.8999999999999998E-3</v>
+        <v>-1.35E-2</v>
       </c>
       <c r="J45" t="str">
         <f>RTD("stockrow","",$A45,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -6328,39 +6385,39 @@
       </c>
       <c r="B46" s="2">
         <f>RTD("stockrow","",$A46,B$1)</f>
-        <v>35.21</v>
+        <v>35.71</v>
       </c>
       <c r="C46" s="2">
         <f>RTD("stockrow","",$A46,C$1)</f>
-        <v>35.369999999999997</v>
+        <v>35.99</v>
       </c>
       <c r="D46" s="2">
         <f>RTD("stockrow","",$A46,D$1)</f>
-        <v>35.42</v>
+        <v>36.04</v>
       </c>
       <c r="E46" s="2">
         <f>RTD("stockrow","",$A46,E$1)</f>
-        <v>34.880000000000003</v>
+        <v>35.47</v>
       </c>
       <c r="F46" s="2">
         <f>RTD("stockrow","",$A46,F$1)</f>
-        <v>35.21</v>
+        <v>35.71</v>
       </c>
       <c r="G46">
         <f>RTD("stockrow","",$A46,G$1)</f>
-        <v>22698343</v>
+        <v>21014112</v>
       </c>
       <c r="H46" s="2">
         <f>RTD("stockrow","",$A46,H$1)</f>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I46" s="1">
         <f>RTD("stockrow","",$A46,I$1)</f>
-        <v>0</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="J46" t="str">
         <f>RTD("stockrow","",$A46,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -6369,39 +6426,39 @@
       </c>
       <c r="B47" s="2">
         <f>RTD("stockrow","",$A47,B$1)</f>
-        <v>74.165000000000006</v>
+        <v>75.002499999999998</v>
       </c>
       <c r="C47" s="2">
         <f>RTD("stockrow","",$A47,C$1)</f>
-        <v>73.12</v>
+        <v>74.78</v>
       </c>
       <c r="D47" s="2">
         <f>RTD("stockrow","",$A47,D$1)</f>
-        <v>74.19</v>
+        <v>75.349999999999994</v>
       </c>
       <c r="E47" s="2">
         <f>RTD("stockrow","",$A47,E$1)</f>
-        <v>72.41</v>
+        <v>74.55</v>
       </c>
       <c r="F47" s="2">
         <f>RTD("stockrow","",$A47,F$1)</f>
-        <v>74.165000000000006</v>
+        <v>75.002499999999998</v>
       </c>
       <c r="G47">
         <f>RTD("stockrow","",$A47,G$1)</f>
-        <v>3248959</v>
+        <v>3217429</v>
       </c>
       <c r="H47" s="2">
         <f>RTD("stockrow","",$A47,H$1)</f>
-        <v>0.66500000000000004</v>
+        <v>0.6925</v>
       </c>
       <c r="I47" s="1">
         <f>RTD("stockrow","",$A47,I$1)</f>
-        <v>8.9999999999999993E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="J47" t="str">
         <f>RTD("stockrow","",$A47,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -6410,39 +6467,39 @@
       </c>
       <c r="B48" s="2">
         <f>RTD("stockrow","",$A48,B$1)</f>
-        <v>61.64</v>
+        <v>63.94</v>
       </c>
       <c r="C48" s="2">
         <f>RTD("stockrow","",$A48,C$1)</f>
-        <v>60.88</v>
+        <v>63.4</v>
       </c>
       <c r="D48" s="2">
         <f>RTD("stockrow","",$A48,D$1)</f>
-        <v>61.88</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="E48" s="2">
         <f>RTD("stockrow","",$A48,E$1)</f>
-        <v>60.16</v>
+        <v>62.5</v>
       </c>
       <c r="F48" s="2">
         <f>RTD("stockrow","",$A48,F$1)</f>
-        <v>61.64</v>
+        <v>63.94</v>
       </c>
       <c r="G48">
         <f>RTD("stockrow","",$A48,G$1)</f>
-        <v>2074947</v>
+        <v>2601754</v>
       </c>
       <c r="H48" s="2">
         <f>RTD("stockrow","",$A48,H$1)</f>
-        <v>0.67</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I48" s="1">
         <f>RTD("stockrow","",$A48,I$1)</f>
-        <v>1.0999999999999999E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="J48" t="str">
         <f>RTD("stockrow","",$A48,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -6451,39 +6508,39 @@
       </c>
       <c r="B49" s="2">
         <f>RTD("stockrow","",$A49,B$1)</f>
-        <v>171.05</v>
+        <v>172.06</v>
       </c>
       <c r="C49" s="2">
         <f>RTD("stockrow","",$A49,C$1)</f>
-        <v>168.75</v>
+        <v>172.99</v>
       </c>
       <c r="D49" s="2">
         <f>RTD("stockrow","",$A49,D$1)</f>
-        <v>172.33</v>
+        <v>173.34</v>
       </c>
       <c r="E49" s="2">
         <f>RTD("stockrow","",$A49,E$1)</f>
-        <v>164.33</v>
+        <v>169.02500000000001</v>
       </c>
       <c r="F49" s="2">
         <f>RTD("stockrow","",$A49,F$1)</f>
-        <v>171.05</v>
+        <v>172.06</v>
       </c>
       <c r="G49">
         <f>RTD("stockrow","",$A49,G$1)</f>
-        <v>8296207</v>
+        <v>6295377</v>
       </c>
       <c r="H49" s="2">
         <f>RTD("stockrow","",$A49,H$1)</f>
-        <v>-0.46</v>
+        <v>-0.24</v>
       </c>
       <c r="I49" s="1">
         <f>RTD("stockrow","",$A49,I$1)</f>
-        <v>-2.7000000000000001E-3</v>
+        <v>-1.4E-3</v>
       </c>
       <c r="J49" t="str">
         <f>RTD("stockrow","",$A49,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -6492,39 +6549,39 @@
       </c>
       <c r="B50" s="2">
         <f>RTD("stockrow","",$A50,B$1)</f>
-        <v>259.26</v>
+        <v>260.89999999999998</v>
       </c>
       <c r="C50" s="2">
         <f>RTD("stockrow","",$A50,C$1)</f>
-        <v>256.07</v>
+        <v>261.68</v>
       </c>
       <c r="D50" s="2">
         <f>RTD("stockrow","",$A50,D$1)</f>
-        <v>259.49</v>
+        <v>262.69</v>
       </c>
       <c r="E50" s="2">
         <f>RTD("stockrow","",$A50,E$1)</f>
-        <v>252.76</v>
+        <v>257.5</v>
       </c>
       <c r="F50" s="2">
         <f>RTD("stockrow","",$A50,F$1)</f>
-        <v>259.26</v>
+        <v>260.89999999999998</v>
       </c>
       <c r="G50">
         <f>RTD("stockrow","",$A50,G$1)</f>
-        <v>59945989</v>
+        <v>51768136</v>
       </c>
       <c r="H50" s="2">
         <f>RTD("stockrow","",$A50,H$1)</f>
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
       <c r="I50" s="1">
         <f>RTD("stockrow","",$A50,I$1)</f>
-        <v>2.8E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J50" t="str">
         <f>RTD("stockrow","",$A50,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -6533,39 +6590,39 @@
       </c>
       <c r="B51" s="2">
         <f>RTD("stockrow","",$A51,B$1)</f>
-        <v>42.3</v>
+        <v>42.79</v>
       </c>
       <c r="C51" s="2">
         <f>RTD("stockrow","",$A51,C$1)</f>
-        <v>40.92</v>
+        <v>43</v>
       </c>
       <c r="D51" s="2">
         <f>RTD("stockrow","",$A51,D$1)</f>
-        <v>42.36</v>
+        <v>43.15</v>
       </c>
       <c r="E51" s="2">
         <f>RTD("stockrow","",$A51,E$1)</f>
-        <v>40.72</v>
+        <v>42.19</v>
       </c>
       <c r="F51" s="2">
         <f>RTD("stockrow","",$A51,F$1)</f>
-        <v>42.3</v>
+        <v>42.79</v>
       </c>
       <c r="G51">
         <f>RTD("stockrow","",$A51,G$1)</f>
-        <v>693885</v>
+        <v>835404</v>
       </c>
       <c r="H51" s="2">
         <f>RTD("stockrow","",$A51,H$1)</f>
-        <v>1.1100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I51" s="1">
         <f>RTD("stockrow","",$A51,I$1)</f>
-        <v>2.69E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="J51" t="str">
         <f>RTD("stockrow","",$A51,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -6574,39 +6631,39 @@
       </c>
       <c r="B52" s="2">
         <f>RTD("stockrow","",$A52,B$1)</f>
-        <v>967.69500000000005</v>
+        <v>959.24</v>
       </c>
       <c r="C52" s="2">
         <f>RTD("stockrow","",$A52,C$1)</f>
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="D52" s="2">
         <f>RTD("stockrow","",$A52,D$1)</f>
-        <v>997.85130000000004</v>
+        <v>977.73199999999997</v>
       </c>
       <c r="E52" s="2">
         <f>RTD("stockrow","",$A52,E$1)</f>
-        <v>901.77</v>
+        <v>934</v>
       </c>
       <c r="F52" s="2">
         <f>RTD("stockrow","",$A52,F$1)</f>
-        <v>967.69500000000005</v>
+        <v>959.24</v>
       </c>
       <c r="G52">
         <f>RTD("stockrow","",$A52,G$1)</f>
-        <v>3345813</v>
+        <v>2314801</v>
       </c>
       <c r="H52" s="2">
         <f>RTD("stockrow","",$A52,H$1)</f>
-        <v>-1.0549999999999999</v>
+        <v>-15.17</v>
       </c>
       <c r="I52" s="1">
         <f>RTD("stockrow","",$A52,I$1)</f>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="J52" t="str">
         <f>RTD("stockrow","",$A52,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -6615,39 +6672,39 @@
       </c>
       <c r="B53" s="2">
         <f>RTD("stockrow","",$A53,B$1)</f>
-        <v>135.63999999999999</v>
+        <v>141.49</v>
       </c>
       <c r="C53" s="2">
         <f>RTD("stockrow","",$A53,C$1)</f>
-        <v>132.99</v>
+        <v>139.52000000000001</v>
       </c>
       <c r="D53" s="2">
         <f>RTD("stockrow","",$A53,D$1)</f>
-        <v>135.79499999999999</v>
+        <v>141.9</v>
       </c>
       <c r="E53" s="2">
         <f>RTD("stockrow","",$A53,E$1)</f>
-        <v>132.20930000000001</v>
+        <v>138.04</v>
       </c>
       <c r="F53" s="2">
         <f>RTD("stockrow","",$A53,F$1)</f>
-        <v>135.63999999999999</v>
+        <v>141.49</v>
       </c>
       <c r="G53">
         <f>RTD("stockrow","",$A53,G$1)</f>
-        <v>224543</v>
+        <v>329882</v>
       </c>
       <c r="H53" s="2">
         <f>RTD("stockrow","",$A53,H$1)</f>
-        <v>2.2599999999999998</v>
+        <v>5.05</v>
       </c>
       <c r="I53" s="1">
         <f>RTD("stockrow","",$A53,I$1)</f>
-        <v>1.6899999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J53" t="str">
         <f>RTD("stockrow","",$A53,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -6656,39 +6713,39 @@
       </c>
       <c r="B54" s="2">
         <f>RTD("stockrow","",$A54,B$1)</f>
-        <v>62</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C54" s="2">
         <f>RTD("stockrow","",$A54,C$1)</f>
-        <v>63.08</v>
+        <v>64.540000000000006</v>
       </c>
       <c r="D54" s="2">
         <f>RTD("stockrow","",$A54,D$1)</f>
-        <v>63.94</v>
+        <v>66.709999999999994</v>
       </c>
       <c r="E54" s="2">
         <f>RTD("stockrow","",$A54,E$1)</f>
-        <v>61.37</v>
+        <v>63.83</v>
       </c>
       <c r="F54" s="2">
         <f>RTD("stockrow","",$A54,F$1)</f>
-        <v>62</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="G54">
         <f>RTD("stockrow","",$A54,G$1)</f>
-        <v>4253053</v>
+        <v>6691663</v>
       </c>
       <c r="H54" s="2">
         <f>RTD("stockrow","",$A54,H$1)</f>
-        <v>-1.69</v>
+        <v>4.67</v>
       </c>
       <c r="I54" s="1">
         <f>RTD("stockrow","",$A54,I$1)</f>
-        <v>-2.6499999999999999E-2</v>
+        <v>7.5399999999999995E-2</v>
       </c>
       <c r="J54" t="str">
         <f>RTD("stockrow","",$A54,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -6697,39 +6754,39 @@
       </c>
       <c r="B55" s="2">
         <f>RTD("stockrow","",$A55,B$1)</f>
-        <v>317.92</v>
+        <v>321.98</v>
       </c>
       <c r="C55" s="2">
         <f>RTD("stockrow","",$A55,C$1)</f>
-        <v>313.3</v>
+        <v>322.41000000000003</v>
       </c>
       <c r="D55" s="2">
         <f>RTD("stockrow","",$A55,D$1)</f>
-        <v>317.95</v>
+        <v>323.04000000000002</v>
       </c>
       <c r="E55" s="2">
         <f>RTD("stockrow","",$A55,E$1)</f>
-        <v>312</v>
+        <v>319.26499999999999</v>
       </c>
       <c r="F55" s="2">
         <f>RTD("stockrow","",$A55,F$1)</f>
-        <v>317.92</v>
+        <v>321.98</v>
       </c>
       <c r="G55">
         <f>RTD("stockrow","",$A55,G$1)</f>
-        <v>67913428</v>
+        <v>79040762</v>
       </c>
       <c r="H55" s="2">
         <f>RTD("stockrow","",$A55,H$1)</f>
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="I55" s="1">
         <f>RTD("stockrow","",$A55,I$1)</f>
-        <v>9.7999999999999997E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="J55" t="str">
         <f>RTD("stockrow","",$A55,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -6738,39 +6795,39 @@
       </c>
       <c r="B56" s="2">
         <f>RTD("stockrow","",$A56,B$1)</f>
-        <v>30.015000000000001</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2">
         <f>RTD("stockrow","",$A56,C$1)</f>
-        <v>29.72</v>
+        <v>30.07</v>
       </c>
       <c r="D56" s="2">
         <f>RTD("stockrow","",$A56,D$1)</f>
-        <v>30.1</v>
+        <v>30.13</v>
       </c>
       <c r="E56" s="2">
         <f>RTD("stockrow","",$A56,E$1)</f>
-        <v>29.53</v>
+        <v>29.85</v>
       </c>
       <c r="F56" s="2">
         <f>RTD("stockrow","",$A56,F$1)</f>
-        <v>30.015000000000001</v>
+        <v>30</v>
       </c>
       <c r="G56">
         <f>RTD("stockrow","",$A56,G$1)</f>
-        <v>24046959</v>
+        <v>28403556</v>
       </c>
       <c r="H56" s="2">
         <f>RTD("stockrow","",$A56,H$1)</f>
-        <v>0.245</v>
+        <v>0.04</v>
       </c>
       <c r="I56" s="1">
         <f>RTD("stockrow","",$A56,I$1)</f>
-        <v>8.2000000000000007E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J56" t="str">
         <f>RTD("stockrow","",$A56,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -6779,39 +6836,39 @@
       </c>
       <c r="B57" s="2">
         <f>RTD("stockrow","",$A57,B$1)</f>
-        <v>1527</v>
+        <v>1546.01</v>
       </c>
       <c r="C57" s="2">
         <f>RTD("stockrow","",$A57,C$1)</f>
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="D57" s="2">
         <f>RTD("stockrow","",$A57,D$1)</f>
-        <v>1590</v>
+        <v>1550</v>
       </c>
       <c r="E57" s="2">
         <f>RTD("stockrow","",$A57,E$1)</f>
-        <v>1431</v>
+        <v>1457</v>
       </c>
       <c r="F57" s="2">
         <f>RTD("stockrow","",$A57,F$1)</f>
-        <v>1527</v>
+        <v>1546.01</v>
       </c>
       <c r="G57">
         <f>RTD("stockrow","",$A57,G$1)</f>
-        <v>21589110</v>
+        <v>15922023</v>
       </c>
       <c r="H57" s="2">
         <f>RTD("stockrow","",$A57,H$1)</f>
-        <v>29.939900000000002</v>
+        <v>29.21</v>
       </c>
       <c r="I57" s="1">
         <f>RTD("stockrow","",$A57,I$1)</f>
-        <v>0.02</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="J57" t="str">
         <f>RTD("stockrow","",$A57,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -6820,39 +6877,39 @@
       </c>
       <c r="B58" s="2">
         <f>RTD("stockrow","",$A58,B$1)</f>
-        <v>34.14</v>
+        <v>35.68</v>
       </c>
       <c r="C58" s="2">
         <f>RTD("stockrow","",$A58,C$1)</f>
-        <v>33.53</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="D58" s="2">
         <f>RTD("stockrow","",$A58,D$1)</f>
-        <v>34.659999999999997</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E58" s="2">
         <f>RTD("stockrow","",$A58,E$1)</f>
-        <v>33.44</v>
+        <v>34.620699999999999</v>
       </c>
       <c r="F58" s="2">
         <f>RTD("stockrow","",$A58,F$1)</f>
-        <v>34.14</v>
+        <v>35.68</v>
       </c>
       <c r="G58">
         <f>RTD("stockrow","",$A58,G$1)</f>
-        <v>13126721</v>
+        <v>13360633</v>
       </c>
       <c r="H58" s="2">
         <f>RTD("stockrow","",$A58,H$1)</f>
-        <v>0.32</v>
+        <v>1.28</v>
       </c>
       <c r="I58" s="1">
         <f>RTD("stockrow","",$A58,I$1)</f>
-        <v>9.4999999999999998E-3</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="J58" t="str">
         <f>RTD("stockrow","",$A58,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -6861,39 +6918,39 @@
       </c>
       <c r="B59" s="2">
         <f>RTD("stockrow","",$A59,B$1)</f>
-        <v>192.63</v>
+        <v>196.49</v>
       </c>
       <c r="C59" s="2">
         <f>RTD("stockrow","",$A59,C$1)</f>
-        <v>189.5</v>
+        <v>195.23</v>
       </c>
       <c r="D59" s="2">
         <f>RTD("stockrow","",$A59,D$1)</f>
-        <v>192.67500000000001</v>
+        <v>197.76499999999999</v>
       </c>
       <c r="E59" s="2">
         <f>RTD("stockrow","",$A59,E$1)</f>
-        <v>187.18</v>
+        <v>194.51</v>
       </c>
       <c r="F59" s="2">
         <f>RTD("stockrow","",$A59,F$1)</f>
-        <v>192.63</v>
+        <v>196.49</v>
       </c>
       <c r="G59">
         <f>RTD("stockrow","",$A59,G$1)</f>
-        <v>6137036</v>
+        <v>6818439</v>
       </c>
       <c r="H59" s="2">
         <f>RTD("stockrow","",$A59,H$1)</f>
-        <v>3.61</v>
+        <v>3.16</v>
       </c>
       <c r="I59" s="1">
         <f>RTD("stockrow","",$A59,I$1)</f>
-        <v>1.9099999999999999E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="J59" t="str">
         <f>RTD("stockrow","",$A59,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -6902,39 +6959,39 @@
       </c>
       <c r="B60" s="2">
         <f>RTD("stockrow","",$A60,B$1)</f>
-        <v>24.1</v>
+        <v>24.95</v>
       </c>
       <c r="C60" s="2">
         <f>RTD("stockrow","",$A60,C$1)</f>
-        <v>23.51</v>
+        <v>24.72</v>
       </c>
       <c r="D60" s="2">
         <f>RTD("stockrow","",$A60,D$1)</f>
-        <v>24.22</v>
+        <v>25.34</v>
       </c>
       <c r="E60" s="2">
         <f>RTD("stockrow","",$A60,E$1)</f>
-        <v>23.161999999999999</v>
+        <v>24.33</v>
       </c>
       <c r="F60" s="2">
         <f>RTD("stockrow","",$A60,F$1)</f>
-        <v>24.1</v>
+        <v>24.95</v>
       </c>
       <c r="G60">
         <f>RTD("stockrow","",$A60,G$1)</f>
-        <v>6864020</v>
+        <v>10692376</v>
       </c>
       <c r="H60" s="2">
         <f>RTD("stockrow","",$A60,H$1)</f>
-        <v>0.39</v>
+        <v>0.7</v>
       </c>
       <c r="I60" s="1">
         <f>RTD("stockrow","",$A60,I$1)</f>
-        <v>1.6400000000000001E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="J60" t="str">
         <f>RTD("stockrow","",$A60,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -6943,39 +7000,39 @@
       </c>
       <c r="B61" s="2">
         <f>RTD("stockrow","",$A61,B$1)</f>
-        <v>35.15</v>
+        <v>35.97</v>
       </c>
       <c r="C61" s="2">
         <f>RTD("stockrow","",$A61,C$1)</f>
-        <v>34.97</v>
+        <v>36.36</v>
       </c>
       <c r="D61" s="2">
         <f>RTD("stockrow","",$A61,D$1)</f>
-        <v>35.9</v>
+        <v>36.49</v>
       </c>
       <c r="E61" s="2">
         <f>RTD("stockrow","",$A61,E$1)</f>
-        <v>34.799999999999997</v>
+        <v>34.93</v>
       </c>
       <c r="F61" s="2">
         <f>RTD("stockrow","",$A61,F$1)</f>
-        <v>35.15</v>
+        <v>35.97</v>
       </c>
       <c r="G61">
         <f>RTD("stockrow","",$A61,G$1)</f>
-        <v>1433057</v>
+        <v>2445051</v>
       </c>
       <c r="H61" s="2">
         <f>RTD("stockrow","",$A61,H$1)</f>
-        <v>0.26</v>
+        <v>0.8</v>
       </c>
       <c r="I61" s="1">
         <f>RTD("stockrow","",$A61,I$1)</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="J61" t="str">
         <f>RTD("stockrow","",$A61,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -6984,48 +7041,48 @@
       </c>
       <c r="B62" s="2">
         <f>RTD("stockrow","",$A62,B$1)</f>
-        <v>55.58</v>
+        <v>55.06</v>
       </c>
       <c r="C62" s="2">
         <f>RTD("stockrow","",$A62,C$1)</f>
-        <v>54.43</v>
+        <v>55.61</v>
       </c>
       <c r="D62" s="2">
         <f>RTD("stockrow","",$A62,D$1)</f>
-        <v>55.594999999999999</v>
+        <v>55.72</v>
       </c>
       <c r="E62" s="2">
         <f>RTD("stockrow","",$A62,E$1)</f>
-        <v>54.284999999999997</v>
+        <v>55.022300000000001</v>
       </c>
       <c r="F62" s="2">
         <f>RTD("stockrow","",$A62,F$1)</f>
-        <v>55.58</v>
+        <v>55.06</v>
       </c>
       <c r="G62">
         <f>RTD("stockrow","",$A62,G$1)</f>
-        <v>11424906</v>
+        <v>11185794</v>
       </c>
       <c r="H62" s="2">
         <f>RTD("stockrow","",$A62,H$1)</f>
-        <v>1.1299999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="I62" s="1">
         <f>RTD("stockrow","",$A62,I$1)</f>
-        <v>2.0799999999999999E-2</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="J62" t="str">
         <f>RTD("stockrow","",$A62,J$1)</f>
-        <v>14 Jul</v>
+        <v>15 Jul</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="num" val="-0.03"/>
         <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0.03"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
